--- a/DTAC-SOURCE-TO-TARGET-MAPPING_SET2_V0.9.xlsx
+++ b/DTAC-SOURCE-TO-TARGET-MAPPING_SET2_V0.9.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Telenor-AEP\Requirement-Docs\DTAC_STM_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Telenor-AEP\Requirement-Docs\DTAC_Sprint1_SS_Feeds\IS_DTAC_Feeds\Review_Feb2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8084" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8084" uniqueCount="596">
   <si>
     <t>Mode of Integration</t>
   </si>
@@ -1427,9 +1427,6 @@
     <t>CHAR(8)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Incremental</t>
-  </si>
-  <si>
     <t>Transaction</t>
   </si>
   <si>
@@ -1695,9 +1692,6 @@
   </si>
   <si>
     <t>DIM_CCB_VA_VCHR_CHNL</t>
-  </si>
-  <si>
-    <t>Full</t>
   </si>
   <si>
     <t>SBSCRPN_ID</t>
@@ -1852,6 +1846,9 @@
   </si>
   <si>
     <t>encrypt(TAX_ID)</t>
+  </si>
+  <si>
+    <t>Incremental</t>
   </si>
 </sst>
 </file>
@@ -2585,7 +2582,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2912,34 +2909,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2982,13 +2951,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
@@ -3023,18 +3004,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3345,12 +3314,12 @@
       <c r="A2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="20.25">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
     </row>
     <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="20"/>
@@ -3374,10 +3343,10 @@
       <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="170" t="s">
+      <c r="A8" s="164" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="171"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="27" t="s">
         <v>64</v>
       </c>
@@ -3404,7 +3373,7 @@
       <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" ht="15.75">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="166" t="s">
         <v>70</v>
       </c>
       <c r="B10" s="31" t="s">
@@ -3416,7 +3385,7 @@
       <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="173"/>
+      <c r="A11" s="167"/>
       <c r="B11" s="37" t="s">
         <v>72</v>
       </c>
@@ -3446,7 +3415,7 @@
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" ht="15.75">
-      <c r="A14" s="174" t="s">
+      <c r="A14" s="168" t="s">
         <v>75</v>
       </c>
       <c r="B14" s="37" t="s">
@@ -3458,7 +3427,7 @@
       <c r="F14" s="41"/>
     </row>
     <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="175"/>
+      <c r="A15" s="169"/>
       <c r="B15" s="31" t="s">
         <v>74</v>
       </c>
@@ -3468,7 +3437,7 @@
       <c r="F15" s="44"/>
     </row>
     <row r="16" spans="1:6" ht="15.75">
-      <c r="A16" s="175"/>
+      <c r="A16" s="169"/>
       <c r="B16" s="31" t="s">
         <v>77</v>
       </c>
@@ -3478,7 +3447,7 @@
       <c r="F16" s="44"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A17" s="176"/>
+      <c r="A17" s="170"/>
       <c r="B17" s="46" t="s">
         <v>78</v>
       </c>
@@ -3515,11 +3484,11 @@
       <c r="C20" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="177" t="s">
+      <c r="D20" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="178"/>
-      <c r="F20" s="179"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="173"/>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1">
       <c r="A21" s="54">
@@ -3531,11 +3500,11 @@
       <c r="C21" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="166" t="s">
+      <c r="D21" s="162" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="167"/>
-      <c r="F21" s="168"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="161"/>
     </row>
     <row r="22" spans="1:6" ht="36.75" customHeight="1">
       <c r="A22" s="57">
@@ -3547,11 +3516,11 @@
       <c r="C22" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="181" t="s">
+      <c r="D22" s="157" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="181"/>
-      <c r="F22" s="182"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="158"/>
     </row>
     <row r="23" spans="1:6" ht="31.5" customHeight="1">
       <c r="A23" s="57">
@@ -3563,11 +3532,11 @@
       <c r="C23" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="181" t="s">
+      <c r="D23" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="181"/>
-      <c r="F23" s="182"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="158"/>
     </row>
     <row r="24" spans="1:6" ht="44.25" customHeight="1">
       <c r="A24" s="57">
@@ -3579,11 +3548,11 @@
       <c r="C24" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="181" t="s">
+      <c r="D24" s="157" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="181"/>
-      <c r="F24" s="182"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="158"/>
     </row>
     <row r="25" spans="1:6" ht="89.25" customHeight="1">
       <c r="A25" s="57">
@@ -3595,11 +3564,11 @@
       <c r="C25" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="183" t="s">
+      <c r="D25" s="159" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="167"/>
-      <c r="F25" s="168"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="161"/>
     </row>
     <row r="26" spans="1:6" ht="44.25" customHeight="1">
       <c r="A26" s="57">
@@ -3611,11 +3580,11 @@
       <c r="C26" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="180" t="s">
-        <v>584</v>
-      </c>
-      <c r="E26" s="180"/>
-      <c r="F26" s="180"/>
+      <c r="D26" s="156" t="s">
+        <v>582</v>
+      </c>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
     </row>
     <row r="27" spans="1:6" ht="44.25" customHeight="1">
       <c r="A27" s="57">
@@ -3627,26 +3596,26 @@
       <c r="C27" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="180" t="s">
-        <v>585</v>
-      </c>
-      <c r="E27" s="180"/>
-      <c r="F27" s="180"/>
+      <c r="D27" s="156" t="s">
+        <v>583</v>
+      </c>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="D20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3709,7 +3678,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="104" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G1" s="106" t="s">
         <v>6</v>
@@ -4321,7 +4290,7 @@
         <v>33</v>
       </c>
       <c r="J14" s="113" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K14" s="110"/>
       <c r="L14" s="114" t="s">
@@ -4331,7 +4300,7 @@
         <v>26</v>
       </c>
       <c r="N14" s="97" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="O14" s="110"/>
       <c r="P14" s="124"/>
@@ -4369,7 +4338,7 @@
         <v>26</v>
       </c>
       <c r="N15" s="98" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="O15" s="110"/>
       <c r="P15" s="124"/>
@@ -4386,7 +4355,7 @@
       <c r="C16" s="110"/>
       <c r="D16" s="112"/>
       <c r="E16" s="93" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F16" s="110"/>
       <c r="G16" s="110"/>
@@ -4407,7 +4376,7 @@
         <v>26</v>
       </c>
       <c r="N16" s="98" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="O16" s="110"/>
       <c r="P16" s="124"/>
@@ -4521,7 +4490,7 @@
         <v>26</v>
       </c>
       <c r="N19" s="103" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="O19" s="110"/>
       <c r="P19" s="124"/>
@@ -5008,7 +4977,7 @@
         <v>33</v>
       </c>
       <c r="J30" s="77" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K30" s="77"/>
       <c r="L30" s="77" t="s">
@@ -5018,7 +4987,7 @@
         <v>26</v>
       </c>
       <c r="N30" s="97" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="O30" s="110"/>
       <c r="P30" s="124"/>
@@ -5056,7 +5025,7 @@
         <v>26</v>
       </c>
       <c r="N31" s="98" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="O31" s="110"/>
       <c r="P31" s="124"/>
@@ -5073,7 +5042,7 @@
       <c r="C32" s="92"/>
       <c r="D32" s="112"/>
       <c r="E32" s="93" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F32" s="110"/>
       <c r="G32" s="110"/>
@@ -5094,7 +5063,7 @@
         <v>26</v>
       </c>
       <c r="N32" s="98" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="O32" s="110"/>
       <c r="P32" s="124"/>
@@ -5208,7 +5177,7 @@
         <v>26</v>
       </c>
       <c r="N35" s="103" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="O35" s="92"/>
       <c r="P35" s="126"/>
@@ -5871,7 +5840,7 @@
         <v>33</v>
       </c>
       <c r="J50" s="113" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K50" s="110"/>
       <c r="L50" s="114" t="s">
@@ -5881,7 +5850,7 @@
         <v>26</v>
       </c>
       <c r="N50" s="97" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="O50" s="110"/>
       <c r="P50" s="124"/>
@@ -5919,7 +5888,7 @@
         <v>26</v>
       </c>
       <c r="N51" s="98" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="O51" s="110"/>
       <c r="P51" s="124"/>
@@ -5936,7 +5905,7 @@
       <c r="C52" s="92"/>
       <c r="D52" s="112"/>
       <c r="E52" s="93" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F52" s="110"/>
       <c r="G52" s="110"/>
@@ -5957,7 +5926,7 @@
         <v>26</v>
       </c>
       <c r="N52" s="98" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="O52" s="110"/>
       <c r="P52" s="124"/>
@@ -6071,7 +6040,7 @@
         <v>26</v>
       </c>
       <c r="N55" s="103" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="O55" s="92"/>
       <c r="P55" s="126"/>
@@ -6464,7 +6433,7 @@
         <v>314</v>
       </c>
       <c r="D64" s="77" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>167</v>
@@ -6475,7 +6444,7 @@
         <v>201</v>
       </c>
       <c r="I64" s="77" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="J64" s="77" t="s">
         <v>32</v>
@@ -6864,7 +6833,7 @@
         <v>314</v>
       </c>
       <c r="D73" s="77" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E73" s="15" t="s">
         <v>167</v>
@@ -6875,7 +6844,7 @@
         <v>201</v>
       </c>
       <c r="I73" s="77" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J73" s="77" t="s">
         <v>32</v>
@@ -6996,7 +6965,7 @@
         <v>314</v>
       </c>
       <c r="D76" s="77" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E76" s="15" t="s">
         <v>167</v>
@@ -7007,7 +6976,7 @@
         <v>201</v>
       </c>
       <c r="I76" s="77" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J76" s="77" t="s">
         <v>32</v>
@@ -7176,7 +7145,7 @@
         <v>33</v>
       </c>
       <c r="J80" s="77" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K80" s="77"/>
       <c r="L80" s="77" t="s">
@@ -7186,7 +7155,7 @@
         <v>26</v>
       </c>
       <c r="N80" s="97" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="O80" s="110"/>
       <c r="P80" s="124"/>
@@ -7224,7 +7193,7 @@
         <v>26</v>
       </c>
       <c r="N81" s="98" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="O81" s="110"/>
       <c r="P81" s="124"/>
@@ -7241,7 +7210,7 @@
       <c r="C82" s="92"/>
       <c r="D82" s="112"/>
       <c r="E82" s="93" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F82" s="110"/>
       <c r="G82" s="110"/>
@@ -7262,7 +7231,7 @@
         <v>26</v>
       </c>
       <c r="N82" s="98" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="O82" s="110"/>
       <c r="P82" s="124"/>
@@ -7376,7 +7345,7 @@
         <v>26</v>
       </c>
       <c r="N85" s="103" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="O85" s="92"/>
       <c r="P85" s="126"/>
@@ -9899,7 +9868,7 @@
         <v>33</v>
       </c>
       <c r="J141" s="113" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K141" s="110"/>
       <c r="L141" s="114" t="s">
@@ -9909,7 +9878,7 @@
         <v>26</v>
       </c>
       <c r="N141" s="97" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="O141" s="110"/>
       <c r="P141" s="124"/>
@@ -9947,7 +9916,7 @@
         <v>26</v>
       </c>
       <c r="N142" s="98" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="O142" s="110"/>
       <c r="P142" s="124"/>
@@ -9964,7 +9933,7 @@
       <c r="C143" s="92"/>
       <c r="D143" s="112"/>
       <c r="E143" s="93" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F143" s="110"/>
       <c r="G143" s="110"/>
@@ -9985,7 +9954,7 @@
         <v>26</v>
       </c>
       <c r="N143" s="98" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="O143" s="110"/>
       <c r="P143" s="124"/>
@@ -10099,7 +10068,7 @@
         <v>26</v>
       </c>
       <c r="N146" s="103" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="O146" s="92"/>
       <c r="P146" s="126"/>
@@ -10135,8 +10104,8 @@
   <dimension ref="A1:X673"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A351" sqref="A351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -10907,7 +10876,7 @@
         <v>25</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="O16" s="14"/>
       <c r="P16" s="18"/>
@@ -17672,7 +17641,7 @@
         <v>25</v>
       </c>
       <c r="N173" s="14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="O173" s="14"/>
       <c r="P173" s="18"/>
@@ -18649,7 +18618,7 @@
         <v>25</v>
       </c>
       <c r="N195" s="14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="O195" s="87"/>
       <c r="P195" s="18"/>
@@ -25361,13 +25330,13 @@
       <c r="D351" s="8"/>
       <c r="E351" s="8"/>
       <c r="F351" s="17" t="s">
-        <v>456</v>
+        <v>55</v>
       </c>
       <c r="G351" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H351" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I351" s="8"/>
       <c r="J351" s="10"/>
@@ -25395,7 +25364,7 @@
         <v>27</v>
       </c>
       <c r="U351" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="V351" s="13" t="s">
         <v>28</v>
@@ -25418,7 +25387,7 @@
       <c r="F352" s="14"/>
       <c r="G352" s="87"/>
       <c r="H352" s="87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I352" s="14" t="s">
         <v>407</v>
@@ -25462,7 +25431,7 @@
       <c r="F353" s="14"/>
       <c r="G353" s="87"/>
       <c r="H353" s="87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I353" s="14" t="s">
         <v>441</v>
@@ -25505,7 +25474,7 @@
       <c r="F354" s="14"/>
       <c r="G354" s="87"/>
       <c r="H354" s="87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I354" s="14" t="s">
         <v>328</v>
@@ -25547,7 +25516,7 @@
       <c r="F355" s="14"/>
       <c r="G355" s="87"/>
       <c r="H355" s="87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I355" s="14" t="s">
         <v>408</v>
@@ -25590,7 +25559,7 @@
       <c r="F356" s="14"/>
       <c r="G356" s="87"/>
       <c r="H356" s="87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I356" s="14" t="s">
         <v>442</v>
@@ -25633,7 +25602,7 @@
       <c r="F357" s="14"/>
       <c r="G357" s="87"/>
       <c r="H357" s="87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I357" s="14" t="s">
         <v>443</v>
@@ -25679,7 +25648,7 @@
       <c r="F358" s="14"/>
       <c r="G358" s="87"/>
       <c r="H358" s="87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I358" s="14" t="s">
         <v>287</v>
@@ -25727,7 +25696,7 @@
       <c r="F359" s="14"/>
       <c r="G359" s="87"/>
       <c r="H359" s="87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I359" s="14" t="s">
         <v>293</v>
@@ -25773,7 +25742,7 @@
       <c r="F360" s="14"/>
       <c r="G360" s="87"/>
       <c r="H360" s="87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I360" s="14" t="s">
         <v>294</v>
@@ -25819,7 +25788,7 @@
       <c r="F361" s="14"/>
       <c r="G361" s="87"/>
       <c r="H361" s="87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I361" s="14" t="s">
         <v>296</v>
@@ -25864,7 +25833,7 @@
       <c r="F362" s="14"/>
       <c r="G362" s="87"/>
       <c r="H362" s="87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I362" s="14" t="s">
         <v>297</v>
@@ -25901,7 +25870,7 @@
       <c r="F363" s="14"/>
       <c r="G363" s="110"/>
       <c r="H363" s="87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I363" s="87" t="s">
         <v>33</v>
@@ -25939,7 +25908,7 @@
       <c r="F364" s="110"/>
       <c r="G364" s="110"/>
       <c r="H364" s="87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I364" s="87" t="s">
         <v>38</v>
@@ -25977,7 +25946,7 @@
       <c r="F365" s="110"/>
       <c r="G365" s="110"/>
       <c r="H365" s="87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I365" s="93" t="s">
         <v>42</v>
@@ -26015,7 +25984,7 @@
       <c r="F366" s="110"/>
       <c r="G366" s="110"/>
       <c r="H366" s="87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I366" s="93" t="s">
         <v>46</v>
@@ -26055,7 +26024,7 @@
       <c r="F367" s="117"/>
       <c r="G367" s="117"/>
       <c r="H367" s="87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I367" s="100" t="s">
         <v>49</v>
@@ -26091,7 +26060,7 @@
       <c r="F368" s="92"/>
       <c r="G368" s="92"/>
       <c r="H368" s="87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I368" s="93" t="s">
         <v>53</v>
@@ -26131,13 +26100,13 @@
       <c r="D369" s="8"/>
       <c r="E369" s="8"/>
       <c r="F369" s="17" t="s">
-        <v>456</v>
+        <v>55</v>
       </c>
       <c r="G369" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H369" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I369" s="8"/>
       <c r="J369" s="10"/>
@@ -26165,7 +26134,7 @@
         <v>27</v>
       </c>
       <c r="U369" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="V369" s="13" t="s">
         <v>28</v>
@@ -26188,7 +26157,7 @@
       <c r="F370" s="14"/>
       <c r="G370" s="87"/>
       <c r="H370" s="87" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I370" s="14" t="s">
         <v>407</v>
@@ -26231,7 +26200,7 @@
       <c r="F371" s="14"/>
       <c r="G371" s="87"/>
       <c r="H371" s="87" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I371" s="14" t="s">
         <v>408</v>
@@ -26278,7 +26247,7 @@
       <c r="F372" s="14"/>
       <c r="G372" s="87"/>
       <c r="H372" s="87" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I372" s="14" t="s">
         <v>328</v>
@@ -26321,7 +26290,7 @@
       <c r="F373" s="14"/>
       <c r="G373" s="87"/>
       <c r="H373" s="87" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I373" s="14" t="s">
         <v>442</v>
@@ -26364,7 +26333,7 @@
       <c r="F374" s="14"/>
       <c r="G374" s="87"/>
       <c r="H374" s="87" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I374" s="14" t="s">
         <v>443</v>
@@ -26410,7 +26379,7 @@
       <c r="F375" s="14"/>
       <c r="G375" s="87"/>
       <c r="H375" s="87" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I375" s="14" t="s">
         <v>287</v>
@@ -26458,7 +26427,7 @@
       <c r="F376" s="14"/>
       <c r="G376" s="87"/>
       <c r="H376" s="87" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I376" s="14" t="s">
         <v>293</v>
@@ -26504,7 +26473,7 @@
       <c r="F377" s="14"/>
       <c r="G377" s="87"/>
       <c r="H377" s="87" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I377" s="14" t="s">
         <v>294</v>
@@ -26550,7 +26519,7 @@
       <c r="F378" s="14"/>
       <c r="G378" s="87"/>
       <c r="H378" s="87" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I378" s="14" t="s">
         <v>296</v>
@@ -26595,7 +26564,7 @@
       <c r="F379" s="14"/>
       <c r="G379" s="87"/>
       <c r="H379" s="87" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I379" s="14" t="s">
         <v>297</v>
@@ -26632,7 +26601,7 @@
       <c r="F380" s="14"/>
       <c r="G380" s="110"/>
       <c r="H380" s="87" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I380" s="87" t="s">
         <v>33</v>
@@ -26670,7 +26639,7 @@
       <c r="F381" s="110"/>
       <c r="G381" s="110"/>
       <c r="H381" s="87" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I381" s="87" t="s">
         <v>38</v>
@@ -26708,7 +26677,7 @@
       <c r="F382" s="110"/>
       <c r="G382" s="110"/>
       <c r="H382" s="87" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I382" s="93" t="s">
         <v>42</v>
@@ -26746,7 +26715,7 @@
       <c r="F383" s="110"/>
       <c r="G383" s="110"/>
       <c r="H383" s="87" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I383" s="93" t="s">
         <v>46</v>
@@ -26786,7 +26755,7 @@
       <c r="F384" s="117"/>
       <c r="G384" s="117"/>
       <c r="H384" s="87" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I384" s="100" t="s">
         <v>49</v>
@@ -26822,7 +26791,7 @@
       <c r="F385" s="92"/>
       <c r="G385" s="92"/>
       <c r="H385" s="87" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I385" s="93" t="s">
         <v>53</v>
@@ -28054,7 +28023,7 @@
         <v>22</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C414" s="7" t="s">
         <v>262</v>
@@ -28068,7 +28037,7 @@
         <v>23</v>
       </c>
       <c r="H414" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I414" s="8"/>
       <c r="J414" s="10"/>
@@ -28107,7 +28076,7 @@
         <v>22</v>
       </c>
       <c r="B415" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C415" s="91" t="s">
         <v>262</v>
@@ -28119,7 +28088,7 @@
       <c r="F415" s="14"/>
       <c r="G415" s="87"/>
       <c r="H415" s="87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I415" s="77" t="s">
         <v>442</v>
@@ -28151,28 +28120,28 @@
         <v>22</v>
       </c>
       <c r="B416" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="C416" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="D416" s="77" t="s">
         <v>465</v>
-      </c>
-      <c r="C416" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="D416" s="77" t="s">
-        <v>466</v>
       </c>
       <c r="E416" s="91"/>
       <c r="F416" s="14"/>
       <c r="G416" s="87"/>
       <c r="H416" s="87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I416" s="77" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J416" s="77" t="s">
         <v>59</v>
       </c>
       <c r="K416" s="77" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L416" s="77" t="s">
         <v>30</v>
@@ -28195,25 +28164,25 @@
         <v>22</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C417" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D417" s="77" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E417" s="14"/>
       <c r="F417" s="77"/>
       <c r="G417" s="127"/>
       <c r="H417" s="87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I417" s="77" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J417" s="77" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K417" s="77" t="s">
         <v>336</v>
@@ -28239,22 +28208,22 @@
         <v>22</v>
       </c>
       <c r="B418" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C418" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D418" s="77" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E418" s="14"/>
       <c r="F418" s="77"/>
       <c r="G418" s="127"/>
       <c r="H418" s="87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I418" s="77" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J418" s="77" t="s">
         <v>289</v>
@@ -28283,22 +28252,22 @@
         <v>22</v>
       </c>
       <c r="B419" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C419" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D419" s="77" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E419" s="91"/>
       <c r="F419" s="14"/>
       <c r="G419" s="87"/>
       <c r="H419" s="87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I419" s="77" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J419" s="77" t="s">
         <v>289</v>
@@ -28327,22 +28296,22 @@
         <v>22</v>
       </c>
       <c r="B420" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C420" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D420" s="77" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E420" s="91"/>
       <c r="F420" s="14"/>
       <c r="G420" s="87"/>
       <c r="H420" s="87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I420" s="77" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J420" s="77" t="s">
         <v>289</v>
@@ -28370,7 +28339,7 @@
         <v>22</v>
       </c>
       <c r="B421" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C421" s="91" t="s">
         <v>262</v>
@@ -28381,7 +28350,7 @@
       <c r="F421" s="14"/>
       <c r="G421" s="87"/>
       <c r="H421" s="87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I421" s="77" t="s">
         <v>313</v>
@@ -28412,7 +28381,7 @@
         <v>22</v>
       </c>
       <c r="B422" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C422" s="91" t="s">
         <v>262</v>
@@ -28426,7 +28395,7 @@
       <c r="F422" s="14"/>
       <c r="G422" s="87"/>
       <c r="H422" s="87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I422" s="77" t="s">
         <v>293</v>
@@ -28460,7 +28429,7 @@
         <v>22</v>
       </c>
       <c r="B423" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C423" s="91" t="s">
         <v>262</v>
@@ -28472,7 +28441,7 @@
       <c r="F423" s="14"/>
       <c r="G423" s="87"/>
       <c r="H423" s="87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I423" s="77" t="s">
         <v>435</v>
@@ -28504,7 +28473,7 @@
         <v>22</v>
       </c>
       <c r="B424" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C424" s="91" t="s">
         <v>262</v>
@@ -28518,7 +28487,7 @@
       <c r="F424" s="77"/>
       <c r="G424" s="127"/>
       <c r="H424" s="87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I424" s="77" t="s">
         <v>296</v>
@@ -28552,7 +28521,7 @@
         <v>22</v>
       </c>
       <c r="B425" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C425" s="91" t="s">
         <v>262</v>
@@ -28564,7 +28533,7 @@
       <c r="F425" s="77"/>
       <c r="G425" s="127"/>
       <c r="H425" s="87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I425" s="77" t="s">
         <v>436</v>
@@ -28596,21 +28565,21 @@
         <v>22</v>
       </c>
       <c r="B426" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C426" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D426" s="77" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F426" s="14"/>
       <c r="G426" s="87"/>
       <c r="H426" s="87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I426" s="77" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J426" s="77" t="s">
         <v>289</v>
@@ -28638,22 +28607,22 @@
         <v>22</v>
       </c>
       <c r="B427" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C427" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D427" s="77" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E427" s="91"/>
       <c r="F427" s="14"/>
       <c r="G427" s="87"/>
       <c r="H427" s="87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I427" s="77" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J427" s="77" t="s">
         <v>289</v>
@@ -28681,22 +28650,22 @@
         <v>22</v>
       </c>
       <c r="B428" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C428" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D428" s="77" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E428" s="91"/>
       <c r="F428" s="14"/>
       <c r="G428" s="87"/>
       <c r="H428" s="87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I428" s="77" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J428" s="77" t="s">
         <v>289</v>
@@ -28725,22 +28694,22 @@
         <v>22</v>
       </c>
       <c r="B429" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C429" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D429" s="77" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E429" s="91"/>
       <c r="F429" s="14"/>
       <c r="G429" s="87"/>
       <c r="H429" s="87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I429" s="77" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J429" s="77" t="s">
         <v>289</v>
@@ -28775,7 +28744,7 @@
       <c r="F430" s="14"/>
       <c r="G430" s="110"/>
       <c r="H430" s="87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I430" s="87" t="s">
         <v>33</v>
@@ -28813,7 +28782,7 @@
       <c r="F431" s="110"/>
       <c r="G431" s="110"/>
       <c r="H431" s="87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I431" s="87" t="s">
         <v>38</v>
@@ -28851,7 +28820,7 @@
       <c r="F432" s="110"/>
       <c r="G432" s="110"/>
       <c r="H432" s="87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I432" s="93" t="s">
         <v>42</v>
@@ -28889,7 +28858,7 @@
       <c r="F433" s="110"/>
       <c r="G433" s="110"/>
       <c r="H433" s="87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I433" s="93" t="s">
         <v>46</v>
@@ -28929,7 +28898,7 @@
       <c r="F434" s="117"/>
       <c r="G434" s="117"/>
       <c r="H434" s="87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I434" s="100" t="s">
         <v>49</v>
@@ -28965,7 +28934,7 @@
       <c r="F435" s="92"/>
       <c r="G435" s="92"/>
       <c r="H435" s="87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I435" s="93" t="s">
         <v>53</v>
@@ -28997,7 +28966,7 @@
         <v>22</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C436" s="7" t="s">
         <v>262</v>
@@ -29011,7 +28980,7 @@
         <v>23</v>
       </c>
       <c r="H436" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I436" s="8"/>
       <c r="J436" s="10"/>
@@ -29050,7 +29019,7 @@
         <v>22</v>
       </c>
       <c r="B437" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C437" s="91" t="s">
         <v>262</v>
@@ -29062,7 +29031,7 @@
       <c r="F437" s="14"/>
       <c r="G437" s="87"/>
       <c r="H437" s="87" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I437" s="91" t="s">
         <v>265</v>
@@ -29094,7 +29063,7 @@
         <v>22</v>
       </c>
       <c r="B438" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C438" s="91" t="s">
         <v>262</v>
@@ -29106,7 +29075,7 @@
       <c r="F438" s="14"/>
       <c r="G438" s="87"/>
       <c r="H438" s="87" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I438" s="91" t="s">
         <v>303</v>
@@ -29138,7 +29107,7 @@
         <v>22</v>
       </c>
       <c r="B439" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C439" s="91" t="s">
         <v>262</v>
@@ -29152,7 +29121,7 @@
       <c r="F439" s="77"/>
       <c r="G439" s="127"/>
       <c r="H439" s="87" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I439" s="91" t="s">
         <v>286</v>
@@ -29186,7 +29155,7 @@
         <v>22</v>
       </c>
       <c r="B440" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C440" s="91" t="s">
         <v>262</v>
@@ -29200,7 +29169,7 @@
       <c r="F440" s="77"/>
       <c r="G440" s="127"/>
       <c r="H440" s="87" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I440" s="91" t="s">
         <v>287</v>
@@ -29234,7 +29203,7 @@
         <v>22</v>
       </c>
       <c r="B441" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C441" s="91" t="s">
         <v>262</v>
@@ -29248,7 +29217,7 @@
       <c r="F441" s="14"/>
       <c r="G441" s="87"/>
       <c r="H441" s="87" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I441" s="91" t="s">
         <v>293</v>
@@ -29282,7 +29251,7 @@
         <v>22</v>
       </c>
       <c r="B442" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C442" s="91" t="s">
         <v>262</v>
@@ -29294,7 +29263,7 @@
       <c r="F442" s="14"/>
       <c r="G442" s="87"/>
       <c r="H442" s="87" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I442" s="91" t="s">
         <v>294</v>
@@ -29325,7 +29294,7 @@
         <v>22</v>
       </c>
       <c r="B443" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C443" s="91" t="s">
         <v>262</v>
@@ -29339,7 +29308,7 @@
       <c r="F443" s="14"/>
       <c r="G443" s="87"/>
       <c r="H443" s="87" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I443" s="91" t="s">
         <v>296</v>
@@ -29373,7 +29342,7 @@
         <v>22</v>
       </c>
       <c r="B444" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C444" s="91" t="s">
         <v>262</v>
@@ -29385,7 +29354,7 @@
       <c r="F444" s="14"/>
       <c r="G444" s="87"/>
       <c r="H444" s="87" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I444" s="91" t="s">
         <v>436</v>
@@ -29423,7 +29392,7 @@
       <c r="F445" s="14"/>
       <c r="G445" s="110"/>
       <c r="H445" s="87" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I445" s="87" t="s">
         <v>33</v>
@@ -29461,7 +29430,7 @@
       <c r="F446" s="110"/>
       <c r="G446" s="110"/>
       <c r="H446" s="87" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I446" s="87" t="s">
         <v>38</v>
@@ -29499,7 +29468,7 @@
       <c r="F447" s="110"/>
       <c r="G447" s="110"/>
       <c r="H447" s="87" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I447" s="93" t="s">
         <v>42</v>
@@ -29537,7 +29506,7 @@
       <c r="F448" s="110"/>
       <c r="G448" s="110"/>
       <c r="H448" s="87" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I448" s="93" t="s">
         <v>46</v>
@@ -29577,7 +29546,7 @@
       <c r="F449" s="117"/>
       <c r="G449" s="117"/>
       <c r="H449" s="87" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I449" s="100" t="s">
         <v>49</v>
@@ -29613,7 +29582,7 @@
       <c r="F450" s="92"/>
       <c r="G450" s="92"/>
       <c r="H450" s="87" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I450" s="93" t="s">
         <v>53</v>
@@ -29645,7 +29614,7 @@
         <v>22</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C451" s="7" t="s">
         <v>262</v>
@@ -29659,7 +29628,7 @@
         <v>23</v>
       </c>
       <c r="H451" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I451" s="8"/>
       <c r="J451" s="10"/>
@@ -29698,7 +29667,7 @@
         <v>22</v>
       </c>
       <c r="B452" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C452" s="91" t="s">
         <v>262</v>
@@ -29710,7 +29679,7 @@
       <c r="F452" s="14"/>
       <c r="G452" s="87"/>
       <c r="H452" s="87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I452" s="77" t="s">
         <v>316</v>
@@ -29742,7 +29711,7 @@
         <v>22</v>
       </c>
       <c r="B453" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C453" s="91" t="s">
         <v>262</v>
@@ -29754,7 +29723,7 @@
       <c r="F453" s="14"/>
       <c r="G453" s="87"/>
       <c r="H453" s="87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I453" s="77" t="s">
         <v>408</v>
@@ -29790,7 +29759,7 @@
         <v>22</v>
       </c>
       <c r="B454" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C454" s="91" t="s">
         <v>262</v>
@@ -29802,7 +29771,7 @@
       <c r="F454" s="77"/>
       <c r="G454" s="127"/>
       <c r="H454" s="87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I454" s="77" t="s">
         <v>331</v>
@@ -29834,7 +29803,7 @@
         <v>22</v>
       </c>
       <c r="B455" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C455" s="91" t="s">
         <v>262</v>
@@ -29846,7 +29815,7 @@
       <c r="F455" s="77"/>
       <c r="G455" s="127"/>
       <c r="H455" s="87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I455" s="77" t="s">
         <v>332</v>
@@ -29878,7 +29847,7 @@
         <v>22</v>
       </c>
       <c r="B456" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C456" s="91" t="s">
         <v>262</v>
@@ -29890,7 +29859,7 @@
       <c r="F456" s="14"/>
       <c r="G456" s="87"/>
       <c r="H456" s="87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I456" s="77" t="s">
         <v>330</v>
@@ -29922,22 +29891,22 @@
         <v>22</v>
       </c>
       <c r="B457" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="C457" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="D457" s="77" t="s">
         <v>462</v>
-      </c>
-      <c r="C457" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="D457" s="77" t="s">
-        <v>463</v>
       </c>
       <c r="E457" s="91"/>
       <c r="F457" s="14"/>
       <c r="G457" s="87"/>
       <c r="H457" s="87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I457" s="77" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J457" s="77" t="s">
         <v>284</v>
@@ -29965,7 +29934,7 @@
         <v>22</v>
       </c>
       <c r="B458" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C458" s="91" t="s">
         <v>262</v>
@@ -29979,7 +29948,7 @@
       <c r="F458" s="14"/>
       <c r="G458" s="87"/>
       <c r="H458" s="87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I458" s="77" t="s">
         <v>293</v>
@@ -30013,7 +29982,7 @@
         <v>22</v>
       </c>
       <c r="B459" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C459" s="91" t="s">
         <v>262</v>
@@ -30025,7 +29994,7 @@
       <c r="F459" s="14"/>
       <c r="G459" s="87"/>
       <c r="H459" s="87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I459" s="77" t="s">
         <v>294</v>
@@ -30063,7 +30032,7 @@
       <c r="F460" s="14"/>
       <c r="G460" s="110"/>
       <c r="H460" s="87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I460" s="87" t="s">
         <v>33</v>
@@ -30101,7 +30070,7 @@
       <c r="F461" s="110"/>
       <c r="G461" s="110"/>
       <c r="H461" s="87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I461" s="87" t="s">
         <v>38</v>
@@ -30139,7 +30108,7 @@
       <c r="F462" s="110"/>
       <c r="G462" s="110"/>
       <c r="H462" s="87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I462" s="93" t="s">
         <v>42</v>
@@ -30177,7 +30146,7 @@
       <c r="F463" s="110"/>
       <c r="G463" s="110"/>
       <c r="H463" s="87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I463" s="93" t="s">
         <v>46</v>
@@ -30217,7 +30186,7 @@
       <c r="F464" s="117"/>
       <c r="G464" s="117"/>
       <c r="H464" s="87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I464" s="100" t="s">
         <v>49</v>
@@ -30253,7 +30222,7 @@
       <c r="F465" s="92"/>
       <c r="G465" s="92"/>
       <c r="H465" s="87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I465" s="93" t="s">
         <v>53</v>
@@ -30285,7 +30254,7 @@
         <v>22</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C466" s="7" t="s">
         <v>262</v>
@@ -30299,7 +30268,7 @@
         <v>23</v>
       </c>
       <c r="H466" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I466" s="8"/>
       <c r="J466" s="10"/>
@@ -30338,7 +30307,7 @@
         <v>22</v>
       </c>
       <c r="B467" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C467" s="91" t="s">
         <v>262</v>
@@ -30350,7 +30319,7 @@
       <c r="F467" s="14"/>
       <c r="G467" s="87"/>
       <c r="H467" s="87" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I467" s="77" t="s">
         <v>441</v>
@@ -30382,7 +30351,7 @@
         <v>22</v>
       </c>
       <c r="B468" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C468" s="91" t="s">
         <v>262</v>
@@ -30394,7 +30363,7 @@
       <c r="F468" s="14"/>
       <c r="G468" s="87"/>
       <c r="H468" s="87" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I468" s="77" t="s">
         <v>427</v>
@@ -30426,7 +30395,7 @@
         <v>22</v>
       </c>
       <c r="B469" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C469" s="91" t="s">
         <v>262</v>
@@ -30438,7 +30407,7 @@
       <c r="F469" s="77"/>
       <c r="G469" s="127"/>
       <c r="H469" s="87" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I469" s="77" t="s">
         <v>311</v>
@@ -30470,7 +30439,7 @@
         <v>22</v>
       </c>
       <c r="B470" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C470" s="91" t="s">
         <v>262</v>
@@ -30482,7 +30451,7 @@
       <c r="F470" s="77"/>
       <c r="G470" s="127"/>
       <c r="H470" s="87" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I470" s="77" t="s">
         <v>442</v>
@@ -30514,25 +30483,25 @@
         <v>22</v>
       </c>
       <c r="B471" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C471" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D471" s="77" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E471" s="91"/>
       <c r="F471" s="14"/>
       <c r="G471" s="87"/>
       <c r="H471" s="87" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I471" s="77" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J471" s="77" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K471" s="77" t="s">
         <v>336</v>
@@ -30558,7 +30527,7 @@
         <v>22</v>
       </c>
       <c r="B472" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C472" s="91" t="s">
         <v>262</v>
@@ -30570,7 +30539,7 @@
       <c r="F472" s="14"/>
       <c r="G472" s="87"/>
       <c r="H472" s="87" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I472" s="77" t="s">
         <v>443</v>
@@ -30601,7 +30570,7 @@
         <v>22</v>
       </c>
       <c r="B473" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C473" s="91" t="s">
         <v>262</v>
@@ -30613,7 +30582,7 @@
       <c r="F473" s="14"/>
       <c r="G473" s="87"/>
       <c r="H473" s="87" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I473" s="77" t="s">
         <v>328</v>
@@ -30645,7 +30614,7 @@
         <v>22</v>
       </c>
       <c r="B474" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C474" s="91" t="s">
         <v>262</v>
@@ -30657,7 +30626,7 @@
       <c r="F474" s="14"/>
       <c r="G474" s="87"/>
       <c r="H474" s="87" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I474" s="77" t="s">
         <v>387</v>
@@ -30689,13 +30658,13 @@
         <v>22</v>
       </c>
       <c r="B475" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C475" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="D475" s="77" t="s">
         <v>478</v>
-      </c>
-      <c r="C475" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="D475" s="77" t="s">
-        <v>479</v>
       </c>
       <c r="E475" s="14" t="s">
         <v>299</v>
@@ -30703,10 +30672,10 @@
       <c r="F475" s="77"/>
       <c r="G475" s="127"/>
       <c r="H475" s="87" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I475" s="77" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J475" s="91" t="s">
         <v>47</v>
@@ -30737,7 +30706,7 @@
         <v>22</v>
       </c>
       <c r="B476" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C476" s="91" t="s">
         <v>262</v>
@@ -30751,7 +30720,7 @@
       <c r="F476" s="14"/>
       <c r="G476" s="87"/>
       <c r="H476" s="87" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I476" s="77" t="s">
         <v>293</v>
@@ -30785,7 +30754,7 @@
         <v>22</v>
       </c>
       <c r="B477" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C477" s="91" t="s">
         <v>262</v>
@@ -30797,7 +30766,7 @@
       <c r="F477" s="14"/>
       <c r="G477" s="87"/>
       <c r="H477" s="87" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I477" s="77" t="s">
         <v>294</v>
@@ -30828,7 +30797,7 @@
         <v>22</v>
       </c>
       <c r="B478" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C478" s="91" t="s">
         <v>262</v>
@@ -30842,7 +30811,7 @@
       <c r="F478" s="14"/>
       <c r="G478" s="87"/>
       <c r="H478" s="87" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I478" s="77" t="s">
         <v>296</v>
@@ -30876,7 +30845,7 @@
         <v>22</v>
       </c>
       <c r="B479" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C479" s="91" t="s">
         <v>262</v>
@@ -30888,7 +30857,7 @@
       <c r="F479" s="14"/>
       <c r="G479" s="87"/>
       <c r="H479" s="87" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I479" s="77" t="s">
         <v>297</v>
@@ -30926,7 +30895,7 @@
       <c r="F480" s="14"/>
       <c r="G480" s="110"/>
       <c r="H480" s="87" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I480" s="87" t="s">
         <v>33</v>
@@ -30964,7 +30933,7 @@
       <c r="F481" s="110"/>
       <c r="G481" s="110"/>
       <c r="H481" s="87" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I481" s="87" t="s">
         <v>38</v>
@@ -31002,7 +30971,7 @@
       <c r="F482" s="110"/>
       <c r="G482" s="110"/>
       <c r="H482" s="87" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I482" s="93" t="s">
         <v>42</v>
@@ -31040,7 +31009,7 @@
       <c r="F483" s="110"/>
       <c r="G483" s="110"/>
       <c r="H483" s="87" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I483" s="93" t="s">
         <v>46</v>
@@ -31080,7 +31049,7 @@
       <c r="F484" s="117"/>
       <c r="G484" s="117"/>
       <c r="H484" s="87" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I484" s="100" t="s">
         <v>49</v>
@@ -31116,7 +31085,7 @@
       <c r="F485" s="92"/>
       <c r="G485" s="92"/>
       <c r="H485" s="87" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I485" s="93" t="s">
         <v>53</v>
@@ -31148,7 +31117,7 @@
         <v>22</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C486" s="7" t="s">
         <v>262</v>
@@ -31162,7 +31131,7 @@
         <v>23</v>
       </c>
       <c r="H486" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I486" s="8"/>
       <c r="J486" s="10"/>
@@ -31201,28 +31170,28 @@
         <v>22</v>
       </c>
       <c r="B487" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C487" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D487" s="77" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E487" s="91"/>
       <c r="F487" s="14"/>
       <c r="G487" s="87"/>
       <c r="H487" s="87" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I487" s="91" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J487" s="91" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K487" s="91" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L487" s="91" t="s">
         <v>30</v>
@@ -31245,7 +31214,7 @@
         <v>22</v>
       </c>
       <c r="B488" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C488" s="91" t="s">
         <v>262</v>
@@ -31257,7 +31226,7 @@
       <c r="F488" s="14"/>
       <c r="G488" s="87"/>
       <c r="H488" s="87" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I488" s="91" t="s">
         <v>303</v>
@@ -31289,7 +31258,7 @@
         <v>22</v>
       </c>
       <c r="B489" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C489" s="91" t="s">
         <v>262</v>
@@ -31303,7 +31272,7 @@
       <c r="F489" s="14"/>
       <c r="G489" s="87"/>
       <c r="H489" s="87" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I489" s="91" t="s">
         <v>293</v>
@@ -31337,7 +31306,7 @@
         <v>22</v>
       </c>
       <c r="B490" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C490" s="91" t="s">
         <v>262</v>
@@ -31349,7 +31318,7 @@
       <c r="F490" s="14"/>
       <c r="G490" s="87"/>
       <c r="H490" s="87" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I490" s="91" t="s">
         <v>294</v>
@@ -31380,7 +31349,7 @@
         <v>22</v>
       </c>
       <c r="B491" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C491" s="91" t="s">
         <v>262</v>
@@ -31394,7 +31363,7 @@
       <c r="F491" s="14"/>
       <c r="G491" s="87"/>
       <c r="H491" s="87" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I491" s="91" t="s">
         <v>296</v>
@@ -31428,7 +31397,7 @@
         <v>22</v>
       </c>
       <c r="B492" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C492" s="91" t="s">
         <v>262</v>
@@ -31440,7 +31409,7 @@
       <c r="F492" s="14"/>
       <c r="G492" s="87"/>
       <c r="H492" s="87" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I492" s="91" t="s">
         <v>297</v>
@@ -31478,7 +31447,7 @@
       <c r="F493" s="14"/>
       <c r="G493" s="110"/>
       <c r="H493" s="87" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I493" s="91" t="s">
         <v>33</v>
@@ -31516,7 +31485,7 @@
       <c r="F494" s="110"/>
       <c r="G494" s="110"/>
       <c r="H494" s="87" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I494" s="87" t="s">
         <v>38</v>
@@ -31554,7 +31523,7 @@
       <c r="F495" s="110"/>
       <c r="G495" s="110"/>
       <c r="H495" s="87" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I495" s="93" t="s">
         <v>42</v>
@@ -31592,7 +31561,7 @@
       <c r="F496" s="110"/>
       <c r="G496" s="110"/>
       <c r="H496" s="87" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I496" s="93" t="s">
         <v>46</v>
@@ -31632,7 +31601,7 @@
       <c r="F497" s="117"/>
       <c r="G497" s="117"/>
       <c r="H497" s="87" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I497" s="100" t="s">
         <v>49</v>
@@ -31668,7 +31637,7 @@
       <c r="F498" s="92"/>
       <c r="G498" s="92"/>
       <c r="H498" s="87" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I498" s="93" t="s">
         <v>53</v>
@@ -31700,7 +31669,7 @@
         <v>22</v>
       </c>
       <c r="B499" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C499" s="7" t="s">
         <v>262</v>
@@ -31714,7 +31683,7 @@
         <v>23</v>
       </c>
       <c r="H499" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I499" s="8"/>
       <c r="J499" s="10"/>
@@ -31753,22 +31722,22 @@
         <v>22</v>
       </c>
       <c r="B500" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="C500" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="D500" s="77" t="s">
         <v>483</v>
-      </c>
-      <c r="C500" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="D500" s="77" t="s">
-        <v>484</v>
       </c>
       <c r="E500" s="91"/>
       <c r="F500" s="14"/>
       <c r="G500" s="87"/>
       <c r="H500" s="87" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I500" s="139" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J500" s="139" t="s">
         <v>266</v>
@@ -31797,22 +31766,22 @@
         <v>22</v>
       </c>
       <c r="B501" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C501" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D501" s="77" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E501" s="91"/>
       <c r="F501" s="14"/>
       <c r="G501" s="87"/>
       <c r="H501" s="87" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I501" s="139" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J501" s="139" t="s">
         <v>59</v>
@@ -31841,7 +31810,7 @@
         <v>22</v>
       </c>
       <c r="B502" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C502" s="91" t="s">
         <v>262</v>
@@ -31853,7 +31822,7 @@
       <c r="F502" s="77"/>
       <c r="G502" s="127"/>
       <c r="H502" s="87" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I502" s="139" t="s">
         <v>313</v>
@@ -31885,7 +31854,7 @@
         <v>22</v>
       </c>
       <c r="B503" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C503" s="91" t="s">
         <v>262</v>
@@ -31899,7 +31868,7 @@
       <c r="F503" s="14"/>
       <c r="G503" s="87"/>
       <c r="H503" s="87" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I503" s="139" t="s">
         <v>293</v>
@@ -31933,7 +31902,7 @@
         <v>22</v>
       </c>
       <c r="B504" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C504" s="91" t="s">
         <v>262</v>
@@ -31945,7 +31914,7 @@
       <c r="F504" s="14"/>
       <c r="G504" s="87"/>
       <c r="H504" s="87" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I504" s="139" t="s">
         <v>435</v>
@@ -31976,7 +31945,7 @@
         <v>22</v>
       </c>
       <c r="B505" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C505" s="91" t="s">
         <v>262</v>
@@ -31990,7 +31959,7 @@
       <c r="F505" s="14"/>
       <c r="G505" s="87"/>
       <c r="H505" s="87" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I505" s="139" t="s">
         <v>296</v>
@@ -32024,7 +31993,7 @@
         <v>22</v>
       </c>
       <c r="B506" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C506" s="91" t="s">
         <v>262</v>
@@ -32036,7 +32005,7 @@
       <c r="F506" s="14"/>
       <c r="G506" s="87"/>
       <c r="H506" s="87" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I506" s="139" t="s">
         <v>436</v>
@@ -32074,7 +32043,7 @@
       <c r="F507" s="14"/>
       <c r="G507" s="110"/>
       <c r="H507" s="87" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I507" s="91" t="s">
         <v>33</v>
@@ -32112,7 +32081,7 @@
       <c r="F508" s="110"/>
       <c r="G508" s="110"/>
       <c r="H508" s="87" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I508" s="87" t="s">
         <v>38</v>
@@ -32150,7 +32119,7 @@
       <c r="F509" s="110"/>
       <c r="G509" s="110"/>
       <c r="H509" s="87" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I509" s="93" t="s">
         <v>42</v>
@@ -32188,7 +32157,7 @@
       <c r="F510" s="110"/>
       <c r="G510" s="110"/>
       <c r="H510" s="87" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I510" s="93" t="s">
         <v>46</v>
@@ -32228,7 +32197,7 @@
       <c r="F511" s="117"/>
       <c r="G511" s="117"/>
       <c r="H511" s="87" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I511" s="100" t="s">
         <v>49</v>
@@ -32264,7 +32233,7 @@
       <c r="F512" s="92"/>
       <c r="G512" s="92"/>
       <c r="H512" s="87" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I512" s="93" t="s">
         <v>53</v>
@@ -32296,7 +32265,7 @@
         <v>22</v>
       </c>
       <c r="B513" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C513" s="7" t="s">
         <v>262</v>
@@ -32310,7 +32279,7 @@
         <v>23</v>
       </c>
       <c r="H513" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I513" s="8"/>
       <c r="J513" s="10"/>
@@ -32349,28 +32318,28 @@
         <v>22</v>
       </c>
       <c r="B514" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="C514" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="D514" s="77" t="s">
         <v>487</v>
-      </c>
-      <c r="C514" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="D514" s="77" t="s">
-        <v>488</v>
       </c>
       <c r="E514" s="91"/>
       <c r="F514" s="14"/>
       <c r="G514" s="87"/>
       <c r="H514" s="87" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I514" s="77" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J514" s="77" t="s">
         <v>321</v>
       </c>
       <c r="K514" s="77" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L514" s="91" t="s">
         <v>30</v>
@@ -32393,7 +32362,7 @@
         <v>22</v>
       </c>
       <c r="B515" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C515" s="91" t="s">
         <v>262</v>
@@ -32405,7 +32374,7 @@
       <c r="F515" s="14"/>
       <c r="G515" s="87"/>
       <c r="H515" s="87" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I515" s="77" t="s">
         <v>303</v>
@@ -32437,22 +32406,22 @@
         <v>22</v>
       </c>
       <c r="B516" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C516" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D516" s="77" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E516" s="91"/>
       <c r="F516" s="77"/>
       <c r="G516" s="127"/>
       <c r="H516" s="87" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I516" s="77" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J516" s="77" t="s">
         <v>404</v>
@@ -32481,22 +32450,22 @@
         <v>22</v>
       </c>
       <c r="B517" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C517" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D517" s="77" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E517" s="91"/>
       <c r="F517" s="77"/>
       <c r="G517" s="127"/>
       <c r="H517" s="87" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I517" s="77" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J517" s="77" t="s">
         <v>279</v>
@@ -32525,22 +32494,22 @@
         <v>22</v>
       </c>
       <c r="B518" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C518" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D518" s="77" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E518" s="91"/>
       <c r="F518" s="77"/>
       <c r="G518" s="127"/>
       <c r="H518" s="87" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I518" s="77" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J518" s="77" t="s">
         <v>279</v>
@@ -32569,22 +32538,22 @@
         <v>22</v>
       </c>
       <c r="B519" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C519" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D519" s="77" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E519" s="91"/>
       <c r="F519" s="77"/>
       <c r="G519" s="127"/>
       <c r="H519" s="87" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I519" s="77" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J519" s="77" t="s">
         <v>279</v>
@@ -32613,7 +32582,7 @@
         <v>22</v>
       </c>
       <c r="B520" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C520" s="91" t="s">
         <v>262</v>
@@ -32627,7 +32596,7 @@
       <c r="F520" s="14"/>
       <c r="G520" s="87"/>
       <c r="H520" s="87" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I520" s="77" t="s">
         <v>293</v>
@@ -32661,7 +32630,7 @@
         <v>22</v>
       </c>
       <c r="B521" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C521" s="91" t="s">
         <v>262</v>
@@ -32673,7 +32642,7 @@
       <c r="F521" s="14"/>
       <c r="G521" s="87"/>
       <c r="H521" s="87" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I521" s="77" t="s">
         <v>435</v>
@@ -32704,7 +32673,7 @@
         <v>22</v>
       </c>
       <c r="B522" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C522" s="91" t="s">
         <v>262</v>
@@ -32718,7 +32687,7 @@
       <c r="F522" s="14"/>
       <c r="G522" s="87"/>
       <c r="H522" s="87" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I522" s="77" t="s">
         <v>296</v>
@@ -32752,7 +32721,7 @@
         <v>22</v>
       </c>
       <c r="B523" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C523" s="91" t="s">
         <v>262</v>
@@ -32764,7 +32733,7 @@
       <c r="F523" s="14"/>
       <c r="G523" s="87"/>
       <c r="H523" s="87" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I523" s="77" t="s">
         <v>436</v>
@@ -32802,7 +32771,7 @@
       <c r="F524" s="14"/>
       <c r="G524" s="110"/>
       <c r="H524" s="87" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I524" s="91" t="s">
         <v>33</v>
@@ -32840,7 +32809,7 @@
       <c r="F525" s="110"/>
       <c r="G525" s="110"/>
       <c r="H525" s="87" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I525" s="87" t="s">
         <v>38</v>
@@ -32878,7 +32847,7 @@
       <c r="F526" s="110"/>
       <c r="G526" s="110"/>
       <c r="H526" s="87" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I526" s="93" t="s">
         <v>42</v>
@@ -32916,7 +32885,7 @@
       <c r="F527" s="110"/>
       <c r="G527" s="110"/>
       <c r="H527" s="87" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I527" s="93" t="s">
         <v>46</v>
@@ -32956,7 +32925,7 @@
       <c r="F528" s="117"/>
       <c r="G528" s="117"/>
       <c r="H528" s="87" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I528" s="100" t="s">
         <v>49</v>
@@ -32992,7 +32961,7 @@
       <c r="F529" s="92"/>
       <c r="G529" s="92"/>
       <c r="H529" s="87" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I529" s="93" t="s">
         <v>53</v>
@@ -33024,7 +32993,7 @@
         <v>22</v>
       </c>
       <c r="B530" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C530" s="7" t="s">
         <v>262</v>
@@ -33038,7 +33007,7 @@
         <v>23</v>
       </c>
       <c r="H530" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I530" s="8"/>
       <c r="J530" s="10"/>
@@ -33077,28 +33046,28 @@
         <v>22</v>
       </c>
       <c r="B531" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="C531" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="D531" s="77" t="s">
         <v>495</v>
-      </c>
-      <c r="C531" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="D531" s="77" t="s">
-        <v>496</v>
       </c>
       <c r="E531" s="91"/>
       <c r="F531" s="14"/>
       <c r="G531" s="87"/>
       <c r="H531" s="87" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I531" s="77" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J531" s="139" t="s">
         <v>321</v>
       </c>
       <c r="K531" s="77" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L531" s="91" t="s">
         <v>30</v>
@@ -33121,22 +33090,22 @@
         <v>22</v>
       </c>
       <c r="B532" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C532" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D532" s="77" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E532" s="91"/>
       <c r="F532" s="14"/>
       <c r="G532" s="87"/>
       <c r="H532" s="87" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I532" s="77" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J532" s="77" t="s">
         <v>59</v>
@@ -33165,7 +33134,7 @@
         <v>22</v>
       </c>
       <c r="B533" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C533" s="91" t="s">
         <v>262</v>
@@ -33179,7 +33148,7 @@
       <c r="F533" s="77"/>
       <c r="G533" s="127"/>
       <c r="H533" s="87" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I533" s="77" t="s">
         <v>286</v>
@@ -33213,7 +33182,7 @@
         <v>22</v>
       </c>
       <c r="B534" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C534" s="139" t="s">
         <v>262</v>
@@ -33227,7 +33196,7 @@
       <c r="F534" s="77"/>
       <c r="G534" s="127"/>
       <c r="H534" s="87" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I534" s="77" t="s">
         <v>287</v>
@@ -33261,7 +33230,7 @@
         <v>22</v>
       </c>
       <c r="B535" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C535" s="91" t="s">
         <v>262</v>
@@ -33275,7 +33244,7 @@
       <c r="F535" s="14"/>
       <c r="G535" s="87"/>
       <c r="H535" s="87" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I535" s="77" t="s">
         <v>293</v>
@@ -33309,7 +33278,7 @@
         <v>22</v>
       </c>
       <c r="B536" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C536" s="91" t="s">
         <v>262</v>
@@ -33321,7 +33290,7 @@
       <c r="F536" s="14"/>
       <c r="G536" s="87"/>
       <c r="H536" s="87" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I536" s="77" t="s">
         <v>294</v>
@@ -33352,7 +33321,7 @@
         <v>22</v>
       </c>
       <c r="B537" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C537" s="91" t="s">
         <v>262</v>
@@ -33366,7 +33335,7 @@
       <c r="F537" s="14"/>
       <c r="G537" s="87"/>
       <c r="H537" s="87" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I537" s="77" t="s">
         <v>296</v>
@@ -33400,7 +33369,7 @@
         <v>22</v>
       </c>
       <c r="B538" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C538" s="91" t="s">
         <v>262</v>
@@ -33412,7 +33381,7 @@
       <c r="F538" s="14"/>
       <c r="G538" s="87"/>
       <c r="H538" s="87" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I538" s="77" t="s">
         <v>297</v>
@@ -33444,22 +33413,22 @@
         <v>22</v>
       </c>
       <c r="B539" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C539" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D539" s="77" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E539" s="91"/>
       <c r="F539" s="77"/>
       <c r="G539" s="136"/>
       <c r="H539" s="87" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I539" s="77" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J539" s="139" t="s">
         <v>289</v>
@@ -33494,7 +33463,7 @@
       <c r="F540" s="14"/>
       <c r="G540" s="110"/>
       <c r="H540" s="87" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I540" s="91" t="s">
         <v>33</v>
@@ -33532,7 +33501,7 @@
       <c r="F541" s="110"/>
       <c r="G541" s="110"/>
       <c r="H541" s="87" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I541" s="87" t="s">
         <v>38</v>
@@ -33570,7 +33539,7 @@
       <c r="F542" s="110"/>
       <c r="G542" s="110"/>
       <c r="H542" s="87" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I542" s="93" t="s">
         <v>42</v>
@@ -33608,7 +33577,7 @@
       <c r="F543" s="110"/>
       <c r="G543" s="110"/>
       <c r="H543" s="87" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I543" s="93" t="s">
         <v>46</v>
@@ -33648,7 +33617,7 @@
       <c r="F544" s="117"/>
       <c r="G544" s="117"/>
       <c r="H544" s="87" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I544" s="100" t="s">
         <v>49</v>
@@ -33684,7 +33653,7 @@
       <c r="F545" s="92"/>
       <c r="G545" s="92"/>
       <c r="H545" s="87" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I545" s="93" t="s">
         <v>53</v>
@@ -33716,7 +33685,7 @@
         <v>22</v>
       </c>
       <c r="B546" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C546" s="7" t="s">
         <v>262</v>
@@ -33730,7 +33699,7 @@
         <v>23</v>
       </c>
       <c r="H546" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I546" s="8"/>
       <c r="J546" s="10"/>
@@ -33769,22 +33738,22 @@
         <v>22</v>
       </c>
       <c r="B547" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="C547" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="D547" s="77" t="s">
         <v>500</v>
-      </c>
-      <c r="C547" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="D547" s="77" t="s">
-        <v>501</v>
       </c>
       <c r="E547" s="91"/>
       <c r="F547" s="14"/>
       <c r="G547" s="87"/>
       <c r="H547" s="87" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I547" s="77" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J547" s="77" t="s">
         <v>295</v>
@@ -33813,7 +33782,7 @@
         <v>22</v>
       </c>
       <c r="B548" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C548" s="91" t="s">
         <v>262</v>
@@ -33825,7 +33794,7 @@
       <c r="F548" s="14"/>
       <c r="G548" s="87"/>
       <c r="H548" s="87" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I548" s="77" t="s">
         <v>316</v>
@@ -33857,7 +33826,7 @@
         <v>22</v>
       </c>
       <c r="B549" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C549" s="91" t="s">
         <v>262</v>
@@ -33871,7 +33840,7 @@
       <c r="F549" s="14"/>
       <c r="G549" s="87"/>
       <c r="H549" s="87" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I549" s="77" t="s">
         <v>293</v>
@@ -33905,7 +33874,7 @@
         <v>22</v>
       </c>
       <c r="B550" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C550" s="91" t="s">
         <v>262</v>
@@ -33917,7 +33886,7 @@
       <c r="F550" s="14"/>
       <c r="G550" s="87"/>
       <c r="H550" s="87" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I550" s="77" t="s">
         <v>435</v>
@@ -33954,7 +33923,7 @@
       <c r="F551" s="14"/>
       <c r="G551" s="110"/>
       <c r="H551" s="87" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I551" s="91" t="s">
         <v>33</v>
@@ -33992,7 +33961,7 @@
       <c r="F552" s="110"/>
       <c r="G552" s="110"/>
       <c r="H552" s="87" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I552" s="87" t="s">
         <v>38</v>
@@ -34030,7 +33999,7 @@
       <c r="F553" s="110"/>
       <c r="G553" s="110"/>
       <c r="H553" s="87" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I553" s="93" t="s">
         <v>42</v>
@@ -34068,7 +34037,7 @@
       <c r="F554" s="110"/>
       <c r="G554" s="110"/>
       <c r="H554" s="87" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I554" s="93" t="s">
         <v>46</v>
@@ -34108,7 +34077,7 @@
       <c r="F555" s="117"/>
       <c r="G555" s="117"/>
       <c r="H555" s="87" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I555" s="100" t="s">
         <v>49</v>
@@ -34144,7 +34113,7 @@
       <c r="F556" s="92"/>
       <c r="G556" s="92"/>
       <c r="H556" s="87" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I556" s="93" t="s">
         <v>53</v>
@@ -34176,7 +34145,7 @@
         <v>22</v>
       </c>
       <c r="B557" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C557" s="7" t="s">
         <v>262</v>
@@ -34190,7 +34159,7 @@
         <v>23</v>
       </c>
       <c r="H557" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I557" s="8"/>
       <c r="J557" s="10"/>
@@ -34229,28 +34198,28 @@
         <v>22</v>
       </c>
       <c r="B558" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="C558" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="D558" s="77" t="s">
         <v>503</v>
-      </c>
-      <c r="C558" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="D558" s="77" t="s">
-        <v>504</v>
       </c>
       <c r="E558" s="91"/>
       <c r="F558" s="14"/>
       <c r="G558" s="87"/>
       <c r="H558" s="87" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I558" s="77" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J558" s="77" t="s">
         <v>321</v>
       </c>
       <c r="K558" s="77" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L558" s="91" t="s">
         <v>30</v>
@@ -34273,22 +34242,22 @@
         <v>22</v>
       </c>
       <c r="B559" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C559" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D559" s="77" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E559" s="91"/>
       <c r="F559" s="14"/>
       <c r="G559" s="87"/>
       <c r="H559" s="87" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I559" s="77" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J559" s="77" t="s">
         <v>59</v>
@@ -34317,22 +34286,22 @@
         <v>22</v>
       </c>
       <c r="B560" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C560" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D560" s="77" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E560" s="91"/>
       <c r="F560" s="77"/>
       <c r="G560" s="127"/>
       <c r="H560" s="87" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I560" s="77" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J560" s="77" t="s">
         <v>266</v>
@@ -34361,7 +34330,7 @@
         <v>22</v>
       </c>
       <c r="B561" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C561" s="91" t="s">
         <v>262</v>
@@ -34373,7 +34342,7 @@
       <c r="F561" s="77"/>
       <c r="G561" s="127"/>
       <c r="H561" s="87" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I561" s="77" t="s">
         <v>313</v>
@@ -34405,7 +34374,7 @@
         <v>22</v>
       </c>
       <c r="B562" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C562" s="91" t="s">
         <v>262</v>
@@ -34419,7 +34388,7 @@
       <c r="F562" s="14"/>
       <c r="G562" s="87"/>
       <c r="H562" s="87" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I562" s="77" t="s">
         <v>293</v>
@@ -34453,7 +34422,7 @@
         <v>22</v>
       </c>
       <c r="B563" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C563" s="91" t="s">
         <v>262</v>
@@ -34465,7 +34434,7 @@
       <c r="F563" s="14"/>
       <c r="G563" s="87"/>
       <c r="H563" s="87" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I563" s="77" t="s">
         <v>435</v>
@@ -34496,7 +34465,7 @@
         <v>22</v>
       </c>
       <c r="B564" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C564" s="91" t="s">
         <v>262</v>
@@ -34510,7 +34479,7 @@
       <c r="F564" s="14"/>
       <c r="G564" s="87"/>
       <c r="H564" s="87" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I564" s="77" t="s">
         <v>296</v>
@@ -34544,7 +34513,7 @@
         <v>22</v>
       </c>
       <c r="B565" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C565" s="91" t="s">
         <v>262</v>
@@ -34556,7 +34525,7 @@
       <c r="F565" s="14"/>
       <c r="G565" s="87"/>
       <c r="H565" s="87" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I565" s="77" t="s">
         <v>436</v>
@@ -34594,7 +34563,7 @@
       <c r="F566" s="14"/>
       <c r="G566" s="110"/>
       <c r="H566" s="87" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I566" s="91" t="s">
         <v>33</v>
@@ -34632,7 +34601,7 @@
       <c r="F567" s="110"/>
       <c r="G567" s="110"/>
       <c r="H567" s="87" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I567" s="87" t="s">
         <v>38</v>
@@ -34670,7 +34639,7 @@
       <c r="F568" s="110"/>
       <c r="G568" s="110"/>
       <c r="H568" s="87" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I568" s="93" t="s">
         <v>42</v>
@@ -34708,7 +34677,7 @@
       <c r="F569" s="110"/>
       <c r="G569" s="110"/>
       <c r="H569" s="87" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I569" s="93" t="s">
         <v>46</v>
@@ -34748,7 +34717,7 @@
       <c r="F570" s="117"/>
       <c r="G570" s="117"/>
       <c r="H570" s="87" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I570" s="100" t="s">
         <v>49</v>
@@ -34784,7 +34753,7 @@
       <c r="F571" s="92"/>
       <c r="G571" s="92"/>
       <c r="H571" s="87" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I571" s="93" t="s">
         <v>53</v>
@@ -34816,7 +34785,7 @@
         <v>22</v>
       </c>
       <c r="B572" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C572" s="7" t="s">
         <v>262</v>
@@ -34830,7 +34799,7 @@
         <v>23</v>
       </c>
       <c r="H572" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I572" s="8"/>
       <c r="J572" s="10"/>
@@ -34869,28 +34838,28 @@
         <v>22</v>
       </c>
       <c r="B573" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C573" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D573" s="77" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E573" s="91"/>
       <c r="F573" s="14"/>
       <c r="G573" s="87"/>
       <c r="H573" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I573" s="77" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J573" s="77" t="s">
         <v>176</v>
       </c>
       <c r="K573" s="77" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L573" s="77" t="s">
         <v>30</v>
@@ -34913,22 +34882,22 @@
         <v>22</v>
       </c>
       <c r="B574" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C574" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D574" s="77" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E574" s="91"/>
       <c r="F574" s="14"/>
       <c r="G574" s="87"/>
       <c r="H574" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I574" s="77" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J574" s="77" t="s">
         <v>57</v>
@@ -34957,7 +34926,7 @@
         <v>22</v>
       </c>
       <c r="B575" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C575" s="91" t="s">
         <v>262</v>
@@ -34969,7 +34938,7 @@
       <c r="F575" s="77"/>
       <c r="G575" s="127"/>
       <c r="H575" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I575" s="77" t="s">
         <v>263</v>
@@ -34978,7 +34947,7 @@
         <v>358</v>
       </c>
       <c r="K575" s="77" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L575" s="77" t="s">
         <v>30</v>
@@ -35001,22 +34970,22 @@
         <v>22</v>
       </c>
       <c r="B576" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C576" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D576" s="77" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E576" s="91"/>
       <c r="F576" s="77"/>
       <c r="G576" s="127"/>
       <c r="H576" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I576" s="77" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J576" s="77" t="s">
         <v>57</v>
@@ -35045,37 +35014,37 @@
         <v>22</v>
       </c>
       <c r="B577" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="C577" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="D577" s="77" t="s">
         <v>507</v>
-      </c>
-      <c r="C577" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="D577" s="77" t="s">
-        <v>508</v>
       </c>
       <c r="E577" s="91"/>
       <c r="F577" s="14"/>
       <c r="G577" s="87"/>
       <c r="H577" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I577" s="77" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J577" s="77" t="s">
+        <v>528</v>
+      </c>
+      <c r="K577" s="77" t="s">
+        <v>528</v>
+      </c>
+      <c r="L577" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="M577" s="135" t="s">
+        <v>25</v>
+      </c>
+      <c r="N577" s="87" t="s">
         <v>529</v>
-      </c>
-      <c r="K577" s="77" t="s">
-        <v>529</v>
-      </c>
-      <c r="L577" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="M577" s="135" t="s">
-        <v>25</v>
-      </c>
-      <c r="N577" s="87" t="s">
-        <v>530</v>
       </c>
       <c r="O577" s="14"/>
       <c r="P577" s="18"/>
@@ -35093,22 +35062,22 @@
         <v>22</v>
       </c>
       <c r="B578" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C578" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D578" s="77" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E578" s="91"/>
       <c r="F578" s="14"/>
       <c r="G578" s="87"/>
       <c r="H578" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I578" s="77" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J578" s="77" t="s">
         <v>176</v>
@@ -35136,28 +35105,28 @@
         <v>22</v>
       </c>
       <c r="B579" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C579" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D579" s="77" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E579" s="91"/>
       <c r="F579" s="14"/>
       <c r="G579" s="87"/>
       <c r="H579" s="87" t="s">
+        <v>523</v>
+      </c>
+      <c r="I579" s="77" t="s">
+        <v>509</v>
+      </c>
+      <c r="J579" s="77" t="s">
         <v>524</v>
       </c>
-      <c r="I579" s="77" t="s">
-        <v>510</v>
-      </c>
-      <c r="J579" s="77" t="s">
-        <v>525</v>
-      </c>
       <c r="K579" s="77" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L579" s="77" t="s">
         <v>30</v>
@@ -35166,7 +35135,7 @@
         <v>25</v>
       </c>
       <c r="N579" s="87" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O579" s="14"/>
       <c r="P579" s="18"/>
@@ -35184,7 +35153,7 @@
         <v>22</v>
       </c>
       <c r="B580" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C580" s="91" t="s">
         <v>262</v>
@@ -35196,7 +35165,7 @@
       <c r="F580" s="14"/>
       <c r="G580" s="87"/>
       <c r="H580" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I580" s="77" t="s">
         <v>408</v>
@@ -35232,22 +35201,22 @@
         <v>22</v>
       </c>
       <c r="B581" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C581" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D581" s="77" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E581" s="91"/>
       <c r="F581" s="14"/>
       <c r="G581" s="87"/>
       <c r="H581" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I581" s="77" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J581" s="77" t="s">
         <v>269</v>
@@ -35262,7 +35231,7 @@
         <v>25</v>
       </c>
       <c r="N581" s="87" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O581" s="14"/>
       <c r="P581" s="18"/>
@@ -35280,22 +35249,22 @@
         <v>22</v>
       </c>
       <c r="B582" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C582" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D582" s="77" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E582" s="91"/>
       <c r="F582" s="14"/>
       <c r="G582" s="87"/>
       <c r="H582" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I582" s="77" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J582" s="77" t="s">
         <v>292</v>
@@ -35310,7 +35279,7 @@
         <v>25</v>
       </c>
       <c r="N582" s="87" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O582" s="14"/>
       <c r="P582" s="18"/>
@@ -35328,7 +35297,7 @@
         <v>22</v>
       </c>
       <c r="B583" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C583" s="91" t="s">
         <v>262</v>
@@ -35342,7 +35311,7 @@
       <c r="F583" s="77"/>
       <c r="G583" s="127"/>
       <c r="H583" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I583" s="77" t="s">
         <v>286</v>
@@ -35376,7 +35345,7 @@
         <v>22</v>
       </c>
       <c r="B584" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C584" s="91" t="s">
         <v>262</v>
@@ -35390,7 +35359,7 @@
       <c r="F584" s="77"/>
       <c r="G584" s="127"/>
       <c r="H584" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I584" s="77" t="s">
         <v>287</v>
@@ -35424,22 +35393,22 @@
         <v>22</v>
       </c>
       <c r="B585" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C585" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D585" s="77" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E585" s="91"/>
       <c r="F585" s="14"/>
       <c r="G585" s="87"/>
       <c r="H585" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I585" s="77" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J585" s="77" t="s">
         <v>266</v>
@@ -35468,22 +35437,22 @@
         <v>22</v>
       </c>
       <c r="B586" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C586" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D586" s="77" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E586" s="91"/>
       <c r="F586" s="14"/>
       <c r="G586" s="87"/>
       <c r="H586" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I586" s="77" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J586" s="77" t="s">
         <v>266</v>
@@ -35511,28 +35480,28 @@
         <v>22</v>
       </c>
       <c r="B587" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C587" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D587" s="77" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E587" s="91"/>
       <c r="F587" s="14"/>
       <c r="G587" s="87"/>
       <c r="H587" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I587" s="77" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J587" s="77" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K587" s="77" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L587" s="77" t="s">
         <v>30</v>
@@ -35555,22 +35524,22 @@
         <v>22</v>
       </c>
       <c r="B588" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C588" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D588" s="77" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E588" s="91"/>
       <c r="F588" s="14"/>
       <c r="G588" s="87"/>
       <c r="H588" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I588" s="77" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J588" s="77" t="s">
         <v>57</v>
@@ -35599,13 +35568,13 @@
         <v>22</v>
       </c>
       <c r="B589" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C589" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D589" s="77" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E589" s="14" t="s">
         <v>299</v>
@@ -35613,10 +35582,10 @@
       <c r="F589" s="14"/>
       <c r="G589" s="87"/>
       <c r="H589" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I589" s="77" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J589" s="77" t="s">
         <v>47</v>
@@ -35647,13 +35616,13 @@
         <v>22</v>
       </c>
       <c r="B590" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C590" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D590" s="77" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E590" s="14" t="s">
         <v>299</v>
@@ -35661,10 +35630,10 @@
       <c r="F590" s="14"/>
       <c r="G590" s="87"/>
       <c r="H590" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I590" s="77" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J590" s="77" t="s">
         <v>47</v>
@@ -35695,22 +35664,22 @@
         <v>22</v>
       </c>
       <c r="B591" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C591" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D591" s="77" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E591" s="91"/>
       <c r="F591" s="77"/>
       <c r="G591" s="127"/>
       <c r="H591" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I591" s="77" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J591" s="77" t="s">
         <v>57</v>
@@ -35738,22 +35707,22 @@
         <v>22</v>
       </c>
       <c r="B592" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C592" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D592" s="77" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E592" s="91"/>
       <c r="F592" s="77"/>
       <c r="G592" s="127"/>
       <c r="H592" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I592" s="77" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J592" s="77" t="s">
         <v>404</v>
@@ -35782,21 +35751,21 @@
         <v>22</v>
       </c>
       <c r="B593" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C593" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D593" s="77" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F593" s="14"/>
       <c r="G593" s="87"/>
       <c r="H593" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I593" s="77" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J593" s="77" t="s">
         <v>404</v>
@@ -35824,22 +35793,22 @@
         <v>22</v>
       </c>
       <c r="B594" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C594" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D594" s="77" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E594" s="91"/>
       <c r="F594" s="14"/>
       <c r="G594" s="87"/>
       <c r="H594" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I594" s="77" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J594" s="77" t="s">
         <v>279</v>
@@ -35867,22 +35836,22 @@
         <v>22</v>
       </c>
       <c r="B595" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C595" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D595" s="77" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E595" s="91"/>
       <c r="F595" s="14"/>
       <c r="G595" s="87"/>
       <c r="H595" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I595" s="77" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J595" s="77" t="s">
         <v>279</v>
@@ -35910,22 +35879,22 @@
         <v>22</v>
       </c>
       <c r="B596" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C596" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D596" s="77" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E596" s="91"/>
       <c r="F596" s="14"/>
       <c r="G596" s="87"/>
       <c r="H596" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I596" s="77" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J596" s="77" t="s">
         <v>279</v>
@@ -35954,7 +35923,7 @@
         <v>22</v>
       </c>
       <c r="B597" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C597" s="91" t="s">
         <v>262</v>
@@ -35968,7 +35937,7 @@
       <c r="F597" s="14"/>
       <c r="G597" s="87"/>
       <c r="H597" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I597" s="77" t="s">
         <v>293</v>
@@ -36002,7 +35971,7 @@
         <v>22</v>
       </c>
       <c r="B598" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C598" s="91" t="s">
         <v>262</v>
@@ -36014,7 +35983,7 @@
       <c r="F598" s="77"/>
       <c r="G598" s="127"/>
       <c r="H598" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I598" s="77" t="s">
         <v>435</v>
@@ -36046,7 +36015,7 @@
         <v>22</v>
       </c>
       <c r="B599" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C599" s="91" t="s">
         <v>262</v>
@@ -36060,7 +36029,7 @@
       <c r="F599" s="77"/>
       <c r="G599" s="127"/>
       <c r="H599" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I599" s="77" t="s">
         <v>296</v>
@@ -36094,21 +36063,21 @@
         <v>22</v>
       </c>
       <c r="B600" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C600" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D600" s="77" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F600" s="14"/>
       <c r="G600" s="87"/>
       <c r="H600" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I600" s="77" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J600" s="77" t="s">
         <v>295</v>
@@ -36136,22 +36105,22 @@
         <v>22</v>
       </c>
       <c r="B601" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C601" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D601" s="77" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E601" s="91"/>
       <c r="F601" s="14"/>
       <c r="G601" s="87"/>
       <c r="H601" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I601" s="77" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J601" s="77" t="s">
         <v>29</v>
@@ -36179,22 +36148,22 @@
         <v>22</v>
       </c>
       <c r="B602" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C602" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D602" s="77" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E602" s="91"/>
       <c r="F602" s="14"/>
       <c r="G602" s="87"/>
       <c r="H602" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I602" s="77" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J602" s="77" t="s">
         <v>57</v>
@@ -36222,28 +36191,28 @@
         <v>22</v>
       </c>
       <c r="B603" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C603" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D603" s="77" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E603" s="91"/>
       <c r="F603" s="14"/>
       <c r="G603" s="87"/>
       <c r="H603" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I603" s="77" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J603" s="77" t="s">
         <v>321</v>
       </c>
       <c r="K603" s="77" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L603" s="77" t="s">
         <v>30</v>
@@ -36272,7 +36241,7 @@
       <c r="F604" s="14"/>
       <c r="G604" s="110"/>
       <c r="H604" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I604" s="91" t="s">
         <v>33</v>
@@ -36310,7 +36279,7 @@
       <c r="F605" s="110"/>
       <c r="G605" s="110"/>
       <c r="H605" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I605" s="87" t="s">
         <v>38</v>
@@ -36348,7 +36317,7 @@
       <c r="F606" s="110"/>
       <c r="G606" s="110"/>
       <c r="H606" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I606" s="93" t="s">
         <v>42</v>
@@ -36386,7 +36355,7 @@
       <c r="F607" s="110"/>
       <c r="G607" s="110"/>
       <c r="H607" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I607" s="93" t="s">
         <v>46</v>
@@ -36426,7 +36395,7 @@
       <c r="F608" s="117"/>
       <c r="G608" s="117"/>
       <c r="H608" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I608" s="100" t="s">
         <v>49</v>
@@ -36462,7 +36431,7 @@
       <c r="F609" s="92"/>
       <c r="G609" s="92"/>
       <c r="H609" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I609" s="93" t="s">
         <v>53</v>
@@ -36494,7 +36463,7 @@
         <v>22</v>
       </c>
       <c r="B610" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C610" s="7" t="s">
         <v>262</v>
@@ -36508,7 +36477,7 @@
         <v>23</v>
       </c>
       <c r="H610" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I610" s="8"/>
       <c r="J610" s="10"/>
@@ -36547,22 +36516,22 @@
         <v>22</v>
       </c>
       <c r="B611" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C611" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D611" s="77" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E611" s="91"/>
       <c r="F611" s="14"/>
       <c r="G611" s="87"/>
       <c r="H611" s="87" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I611" s="77" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J611" s="77" t="s">
         <v>295</v>
@@ -36591,7 +36560,7 @@
         <v>22</v>
       </c>
       <c r="B612" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C612" s="91" t="s">
         <v>262</v>
@@ -36603,7 +36572,7 @@
       <c r="F612" s="14"/>
       <c r="G612" s="87"/>
       <c r="H612" s="87" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I612" s="77" t="s">
         <v>387</v>
@@ -36635,22 +36604,22 @@
         <v>22</v>
       </c>
       <c r="B613" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="C613" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="D613" s="77" t="s">
         <v>535</v>
-      </c>
-      <c r="C613" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="D613" s="77" t="s">
-        <v>536</v>
       </c>
       <c r="E613" s="91"/>
       <c r="F613" s="77"/>
       <c r="G613" s="127"/>
       <c r="H613" s="87" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I613" s="77" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J613" s="77" t="s">
         <v>289</v>
@@ -36679,22 +36648,22 @@
         <v>22</v>
       </c>
       <c r="B614" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C614" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D614" s="77" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E614" s="91"/>
       <c r="F614" s="77"/>
       <c r="G614" s="127"/>
       <c r="H614" s="87" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I614" s="77" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J614" s="77" t="s">
         <v>289</v>
@@ -36723,7 +36692,7 @@
         <v>22</v>
       </c>
       <c r="B615" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C615" s="91" t="s">
         <v>262</v>
@@ -36737,7 +36706,7 @@
       <c r="F615" s="14"/>
       <c r="G615" s="87"/>
       <c r="H615" s="87" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I615" s="77" t="s">
         <v>293</v>
@@ -36771,7 +36740,7 @@
         <v>22</v>
       </c>
       <c r="B616" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C616" s="91" t="s">
         <v>262</v>
@@ -36783,7 +36752,7 @@
       <c r="F616" s="14"/>
       <c r="G616" s="87"/>
       <c r="H616" s="87" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I616" s="77" t="s">
         <v>435</v>
@@ -36820,7 +36789,7 @@
       <c r="F617" s="14"/>
       <c r="G617" s="110"/>
       <c r="H617" s="87" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I617" s="91" t="s">
         <v>33</v>
@@ -36858,7 +36827,7 @@
       <c r="F618" s="110"/>
       <c r="G618" s="110"/>
       <c r="H618" s="87" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I618" s="87" t="s">
         <v>38</v>
@@ -36896,7 +36865,7 @@
       <c r="F619" s="110"/>
       <c r="G619" s="110"/>
       <c r="H619" s="87" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I619" s="93" t="s">
         <v>42</v>
@@ -36934,7 +36903,7 @@
       <c r="F620" s="110"/>
       <c r="G620" s="110"/>
       <c r="H620" s="87" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I620" s="93" t="s">
         <v>46</v>
@@ -36974,7 +36943,7 @@
       <c r="F621" s="117"/>
       <c r="G621" s="117"/>
       <c r="H621" s="87" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I621" s="100" t="s">
         <v>49</v>
@@ -37010,7 +36979,7 @@
       <c r="F622" s="92"/>
       <c r="G622" s="92"/>
       <c r="H622" s="87" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I622" s="93" t="s">
         <v>53</v>
@@ -37042,7 +37011,7 @@
         <v>22</v>
       </c>
       <c r="B623" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C623" s="7" t="s">
         <v>262</v>
@@ -37056,7 +37025,7 @@
         <v>23</v>
       </c>
       <c r="H623" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I623" s="8"/>
       <c r="J623" s="10"/>
@@ -37095,25 +37064,25 @@
         <v>22</v>
       </c>
       <c r="B624" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="C624" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="D624" s="77" t="s">
         <v>539</v>
-      </c>
-      <c r="C624" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="D624" s="77" t="s">
-        <v>540</v>
       </c>
       <c r="E624" s="91"/>
       <c r="F624" s="14"/>
       <c r="G624" s="87"/>
       <c r="H624" s="87" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I624" s="77" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J624" s="77" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K624" s="77" t="s">
         <v>336</v>
@@ -37139,22 +37108,22 @@
         <v>22</v>
       </c>
       <c r="B625" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C625" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D625" s="77" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E625" s="91"/>
       <c r="F625" s="14"/>
       <c r="G625" s="87"/>
       <c r="H625" s="87" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I625" s="77" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J625" s="77" t="s">
         <v>59</v>
@@ -37183,22 +37152,22 @@
         <v>22</v>
       </c>
       <c r="B626" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C626" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D626" s="77" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E626" s="91"/>
       <c r="F626" s="77"/>
       <c r="G626" s="127"/>
       <c r="H626" s="87" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I626" s="77" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J626" s="77" t="s">
         <v>59</v>
@@ -37227,22 +37196,22 @@
         <v>22</v>
       </c>
       <c r="B627" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C627" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D627" s="77" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E627" s="91"/>
       <c r="F627" s="77"/>
       <c r="G627" s="127"/>
       <c r="H627" s="87" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I627" s="77" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J627" s="77" t="s">
         <v>289</v>
@@ -37271,22 +37240,22 @@
         <v>22</v>
       </c>
       <c r="B628" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C628" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D628" s="77" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E628" s="91"/>
       <c r="F628" s="77"/>
       <c r="G628" s="127"/>
       <c r="H628" s="87" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I628" s="77" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J628" s="77" t="s">
         <v>289</v>
@@ -37315,7 +37284,7 @@
         <v>22</v>
       </c>
       <c r="B629" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C629" s="91" t="s">
         <v>262</v>
@@ -37329,7 +37298,7 @@
       <c r="F629" s="14"/>
       <c r="G629" s="87"/>
       <c r="H629" s="87" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I629" s="77" t="s">
         <v>293</v>
@@ -37363,7 +37332,7 @@
         <v>22</v>
       </c>
       <c r="B630" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C630" s="91" t="s">
         <v>262</v>
@@ -37375,7 +37344,7 @@
       <c r="F630" s="14"/>
       <c r="G630" s="87"/>
       <c r="H630" s="87" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I630" s="77" t="s">
         <v>435</v>
@@ -37406,7 +37375,7 @@
         <v>22</v>
       </c>
       <c r="B631" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C631" s="91" t="s">
         <v>262</v>
@@ -37420,7 +37389,7 @@
       <c r="F631" s="14"/>
       <c r="G631" s="87"/>
       <c r="H631" s="87" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I631" s="77" t="s">
         <v>296</v>
@@ -37454,22 +37423,22 @@
         <v>22</v>
       </c>
       <c r="B632" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C632" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D632" s="77" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E632" s="91"/>
       <c r="F632" s="14"/>
       <c r="G632" s="87"/>
       <c r="H632" s="87" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I632" s="77" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J632" s="77" t="s">
         <v>295</v>
@@ -37504,7 +37473,7 @@
       <c r="F633" s="14"/>
       <c r="G633" s="110"/>
       <c r="H633" s="87" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I633" s="91" t="s">
         <v>33</v>
@@ -37542,7 +37511,7 @@
       <c r="F634" s="110"/>
       <c r="G634" s="110"/>
       <c r="H634" s="87" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I634" s="87" t="s">
         <v>38</v>
@@ -37580,7 +37549,7 @@
       <c r="F635" s="110"/>
       <c r="G635" s="110"/>
       <c r="H635" s="87" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I635" s="93" t="s">
         <v>42</v>
@@ -37618,7 +37587,7 @@
       <c r="F636" s="110"/>
       <c r="G636" s="110"/>
       <c r="H636" s="87" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I636" s="93" t="s">
         <v>46</v>
@@ -37658,7 +37627,7 @@
       <c r="F637" s="117"/>
       <c r="G637" s="117"/>
       <c r="H637" s="87" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I637" s="100" t="s">
         <v>49</v>
@@ -37694,7 +37663,7 @@
       <c r="F638" s="92"/>
       <c r="G638" s="92"/>
       <c r="H638" s="87" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I638" s="93" t="s">
         <v>53</v>
@@ -37721,74 +37690,74 @@
       <c r="U638" s="126"/>
       <c r="V638" s="126"/>
     </row>
-    <row r="639" spans="1:22" ht="15" customHeight="1" collapsed="1">
-      <c r="A639" s="140" t="s">
-        <v>22</v>
-      </c>
-      <c r="B639" s="141" t="s">
-        <v>562</v>
-      </c>
-      <c r="C639" s="141" t="s">
-        <v>262</v>
-      </c>
-      <c r="D639" s="142"/>
-      <c r="E639" s="142"/>
-      <c r="F639" s="141" t="s">
-        <v>546</v>
-      </c>
-      <c r="G639" s="143" t="s">
+    <row r="639" spans="1:22" s="109" customFormat="1" ht="15" customHeight="1" collapsed="1">
+      <c r="A639" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="B639" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="C639" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D639" s="8"/>
+      <c r="E639" s="8"/>
+      <c r="F639" s="17" t="s">
+        <v>595</v>
+      </c>
+      <c r="G639" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H639" s="143" t="s">
-        <v>566</v>
-      </c>
-      <c r="I639" s="140"/>
-      <c r="J639" s="144"/>
-      <c r="K639" s="145"/>
-      <c r="L639" s="146"/>
-      <c r="M639" s="142"/>
-      <c r="N639" s="142"/>
-      <c r="O639" s="147" t="s">
+      <c r="H639" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="I639" s="8"/>
+      <c r="J639" s="10"/>
+      <c r="K639" s="10"/>
+      <c r="L639" s="8"/>
+      <c r="M639" s="12"/>
+      <c r="N639" s="8"/>
+      <c r="O639" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P639" s="148" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q639" s="148" t="s">
-        <v>25</v>
-      </c>
-      <c r="R639" s="148" t="s">
-        <v>25</v>
-      </c>
-      <c r="S639" s="148" t="s">
-        <v>25</v>
-      </c>
-      <c r="T639" s="140" t="s">
+      <c r="P639" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q639" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="R639" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="S639" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="T639" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="U639" s="143" t="s">
+      <c r="U639" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="V639" s="149" t="s">
+      <c r="V639" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="640" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A640" s="89"/>
-      <c r="B640" s="150"/>
+      <c r="B640" s="140"/>
       <c r="C640" s="77"/>
-      <c r="D640" s="151"/>
+      <c r="D640" s="141"/>
       <c r="E640" s="77"/>
       <c r="F640" s="77"/>
       <c r="G640" s="77"/>
       <c r="H640" s="77" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I640" s="77" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J640" s="77" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="K640" s="77"/>
       <c r="L640" s="77" t="s">
@@ -37797,8 +37766,8 @@
       <c r="M640" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="N640" s="152" t="s">
-        <v>549</v>
+      <c r="N640" s="142" t="s">
+        <v>547</v>
       </c>
       <c r="O640" s="77"/>
       <c r="P640" s="134"/>
@@ -37812,11 +37781,11 @@
       <c r="V640" s="77"/>
     </row>
     <row r="641" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A641" s="153" t="s">
-        <v>22</v>
-      </c>
-      <c r="B641" s="154" t="s">
-        <v>562</v>
+      <c r="A641" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B641" s="144" t="s">
+        <v>560</v>
       </c>
       <c r="C641" s="94" t="s">
         <v>262</v>
@@ -37825,16 +37794,16 @@
         <v>407</v>
       </c>
       <c r="E641" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F641" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G641" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H641" s="77" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I641" s="77" t="s">
         <v>407</v>
@@ -37853,43 +37822,43 @@
       </c>
       <c r="N641" s="94"/>
       <c r="O641" s="94"/>
-      <c r="P641" s="155" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q641" s="156"/>
-      <c r="R641" s="156"/>
-      <c r="S641" s="156"/>
-      <c r="T641" s="156"/>
+      <c r="P641" s="145" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q641" s="146"/>
+      <c r="R641" s="146"/>
+      <c r="S641" s="146"/>
+      <c r="T641" s="146"/>
       <c r="U641" s="77"/>
       <c r="V641" s="89"/>
     </row>
     <row r="642" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A642" s="153" t="s">
-        <v>22</v>
-      </c>
-      <c r="B642" s="154" t="s">
-        <v>562</v>
+      <c r="A642" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B642" s="144" t="s">
+        <v>560</v>
       </c>
       <c r="C642" s="94" t="s">
         <v>262</v>
       </c>
       <c r="D642" s="77" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E642" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F642" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G642" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H642" s="77" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I642" s="77" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J642" s="77" t="s">
         <v>29</v>
@@ -37905,44 +37874,44 @@
       </c>
       <c r="N642" s="94"/>
       <c r="O642" s="94"/>
-      <c r="P642" s="155"/>
-      <c r="Q642" s="156"/>
-      <c r="R642" s="156"/>
-      <c r="S642" s="156"/>
-      <c r="T642" s="156"/>
+      <c r="P642" s="145"/>
+      <c r="Q642" s="146"/>
+      <c r="R642" s="146"/>
+      <c r="S642" s="146"/>
+      <c r="T642" s="146"/>
       <c r="U642" s="77"/>
       <c r="V642" s="89"/>
     </row>
     <row r="643" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A643" s="153" t="s">
-        <v>22</v>
-      </c>
-      <c r="B643" s="154" t="s">
-        <v>562</v>
+      <c r="A643" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B643" s="144" t="s">
+        <v>560</v>
       </c>
       <c r="C643" s="94" t="s">
         <v>262</v>
       </c>
       <c r="D643" s="77" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E643" s="77" t="s">
+        <v>548</v>
+      </c>
+      <c r="F643" s="77" t="s">
+        <v>548</v>
+      </c>
+      <c r="G643" s="77" t="s">
+        <v>548</v>
+      </c>
+      <c r="H643" s="77" t="s">
+        <v>564</v>
+      </c>
+      <c r="I643" s="77" t="s">
         <v>550</v>
       </c>
-      <c r="F643" s="77" t="s">
-        <v>550</v>
-      </c>
-      <c r="G643" s="77" t="s">
-        <v>550</v>
-      </c>
-      <c r="H643" s="77" t="s">
-        <v>566</v>
-      </c>
-      <c r="I643" s="77" t="s">
-        <v>552</v>
-      </c>
       <c r="J643" s="77" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K643" s="77" t="s">
         <v>325</v>
@@ -37957,49 +37926,49 @@
         <v>301</v>
       </c>
       <c r="O643" s="94"/>
-      <c r="P643" s="155"/>
-      <c r="Q643" s="156"/>
-      <c r="R643" s="156" t="s">
-        <v>25</v>
-      </c>
-      <c r="S643" s="156"/>
-      <c r="T643" s="156"/>
+      <c r="P643" s="145"/>
+      <c r="Q643" s="146"/>
+      <c r="R643" s="146" t="s">
+        <v>25</v>
+      </c>
+      <c r="S643" s="146"/>
+      <c r="T643" s="146"/>
       <c r="U643" s="77"/>
       <c r="V643" s="89"/>
     </row>
     <row r="644" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A644" s="153" t="s">
-        <v>22</v>
-      </c>
-      <c r="B644" s="154" t="s">
-        <v>562</v>
+      <c r="A644" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B644" s="144" t="s">
+        <v>560</v>
       </c>
       <c r="C644" s="94" t="s">
         <v>262</v>
       </c>
       <c r="D644" s="77" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E644" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F644" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G644" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H644" s="77" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I644" s="77" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="J644" s="77" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="K644" s="77" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="L644" s="77" t="s">
         <v>30</v>
@@ -38009,47 +37978,47 @@
       </c>
       <c r="N644" s="94"/>
       <c r="O644" s="94"/>
-      <c r="P644" s="155"/>
-      <c r="Q644" s="156"/>
-      <c r="R644" s="156"/>
-      <c r="S644" s="156"/>
-      <c r="T644" s="156"/>
+      <c r="P644" s="145"/>
+      <c r="Q644" s="146"/>
+      <c r="R644" s="146"/>
+      <c r="S644" s="146"/>
+      <c r="T644" s="146"/>
       <c r="U644" s="77"/>
       <c r="V644" s="89"/>
     </row>
     <row r="645" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A645" s="153" t="s">
-        <v>22</v>
-      </c>
-      <c r="B645" s="154" t="s">
+      <c r="A645" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B645" s="144" t="s">
+        <v>560</v>
+      </c>
+      <c r="C645" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="D645" s="77" t="s">
         <v>562</v>
       </c>
-      <c r="C645" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="D645" s="77" t="s">
+      <c r="E645" s="77" t="s">
+        <v>548</v>
+      </c>
+      <c r="F645" s="77" t="s">
+        <v>548</v>
+      </c>
+      <c r="G645" s="77" t="s">
+        <v>548</v>
+      </c>
+      <c r="H645" s="77" t="s">
         <v>564</v>
       </c>
-      <c r="E645" s="77" t="s">
-        <v>550</v>
-      </c>
-      <c r="F645" s="77" t="s">
-        <v>550</v>
-      </c>
-      <c r="G645" s="77" t="s">
-        <v>550</v>
-      </c>
-      <c r="H645" s="77" t="s">
+      <c r="I645" s="77" t="s">
+        <v>562</v>
+      </c>
+      <c r="J645" s="77" t="s">
+        <v>551</v>
+      </c>
+      <c r="K645" s="77" t="s">
         <v>566</v>
-      </c>
-      <c r="I645" s="77" t="s">
-        <v>564</v>
-      </c>
-      <c r="J645" s="77" t="s">
-        <v>553</v>
-      </c>
-      <c r="K645" s="77" t="s">
-        <v>568</v>
       </c>
       <c r="L645" s="77" t="s">
         <v>30</v>
@@ -38059,47 +38028,47 @@
       </c>
       <c r="N645" s="94"/>
       <c r="O645" s="94"/>
-      <c r="P645" s="155"/>
-      <c r="Q645" s="156"/>
-      <c r="R645" s="156"/>
-      <c r="S645" s="156"/>
-      <c r="T645" s="156"/>
+      <c r="P645" s="145"/>
+      <c r="Q645" s="146"/>
+      <c r="R645" s="146"/>
+      <c r="S645" s="146"/>
+      <c r="T645" s="146"/>
       <c r="U645" s="77"/>
       <c r="V645" s="89"/>
     </row>
     <row r="646" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A646" s="153" t="s">
-        <v>22</v>
-      </c>
-      <c r="B646" s="154" t="s">
-        <v>562</v>
+      <c r="A646" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B646" s="144" t="s">
+        <v>560</v>
       </c>
       <c r="C646" s="94" t="s">
         <v>262</v>
       </c>
       <c r="D646" s="77" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E646" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F646" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G646" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H646" s="77" t="s">
+        <v>564</v>
+      </c>
+      <c r="I646" s="77" t="s">
+        <v>552</v>
+      </c>
+      <c r="J646" s="77" t="s">
+        <v>551</v>
+      </c>
+      <c r="K646" s="77" t="s">
         <v>566</v>
-      </c>
-      <c r="I646" s="77" t="s">
-        <v>554</v>
-      </c>
-      <c r="J646" s="77" t="s">
-        <v>553</v>
-      </c>
-      <c r="K646" s="77" t="s">
-        <v>568</v>
       </c>
       <c r="L646" s="77" t="s">
         <v>30</v>
@@ -38109,20 +38078,20 @@
       </c>
       <c r="N646" s="94"/>
       <c r="O646" s="94"/>
-      <c r="P646" s="155"/>
-      <c r="Q646" s="156"/>
-      <c r="R646" s="156"/>
-      <c r="S646" s="156"/>
-      <c r="T646" s="156"/>
+      <c r="P646" s="145"/>
+      <c r="Q646" s="146"/>
+      <c r="R646" s="146"/>
+      <c r="S646" s="146"/>
+      <c r="T646" s="146"/>
       <c r="U646" s="77"/>
       <c r="V646" s="89"/>
     </row>
     <row r="647" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A647" s="153" t="s">
-        <v>22</v>
-      </c>
-      <c r="B647" s="154" t="s">
-        <v>562</v>
+      <c r="A647" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B647" s="144" t="s">
+        <v>560</v>
       </c>
       <c r="C647" s="94" t="s">
         <v>262</v>
@@ -38131,25 +38100,25 @@
         <v>387</v>
       </c>
       <c r="E647" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F647" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G647" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H647" s="77" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I647" s="77" t="s">
         <v>387</v>
       </c>
       <c r="J647" s="77" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K647" s="77" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="L647" s="77" t="s">
         <v>30</v>
@@ -38159,41 +38128,41 @@
       </c>
       <c r="N647" s="94"/>
       <c r="O647" s="94"/>
-      <c r="P647" s="155"/>
-      <c r="Q647" s="156"/>
-      <c r="R647" s="156"/>
-      <c r="S647" s="156"/>
-      <c r="T647" s="156"/>
+      <c r="P647" s="145"/>
+      <c r="Q647" s="146"/>
+      <c r="R647" s="146"/>
+      <c r="S647" s="146"/>
+      <c r="T647" s="146"/>
       <c r="U647" s="77"/>
       <c r="V647" s="89"/>
     </row>
     <row r="648" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A648" s="153" t="s">
-        <v>22</v>
-      </c>
-      <c r="B648" s="154" t="s">
-        <v>562</v>
+      <c r="A648" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B648" s="144" t="s">
+        <v>560</v>
       </c>
       <c r="C648" s="94" t="s">
         <v>262</v>
       </c>
       <c r="D648" s="77" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E648" s="77" t="s">
         <v>299</v>
       </c>
       <c r="F648" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G648" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H648" s="77" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I648" s="77" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J648" s="77" t="s">
         <v>47</v>
@@ -38208,23 +38177,23 @@
         <v>25</v>
       </c>
       <c r="N648" s="77" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="O648" s="94"/>
-      <c r="P648" s="155"/>
-      <c r="Q648" s="156"/>
-      <c r="R648" s="156"/>
-      <c r="S648" s="156"/>
-      <c r="T648" s="156"/>
+      <c r="P648" s="145"/>
+      <c r="Q648" s="146"/>
+      <c r="R648" s="146"/>
+      <c r="S648" s="146"/>
+      <c r="T648" s="146"/>
       <c r="U648" s="77"/>
       <c r="V648" s="89"/>
     </row>
     <row r="649" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A649" s="153" t="s">
-        <v>22</v>
-      </c>
-      <c r="B649" s="154" t="s">
-        <v>562</v>
+      <c r="A649" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B649" s="144" t="s">
+        <v>560</v>
       </c>
       <c r="C649" s="94" t="s">
         <v>262</v>
@@ -38234,22 +38203,22 @@
       </c>
       <c r="E649" s="77"/>
       <c r="F649" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G649" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H649" s="77" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I649" s="77" t="s">
         <v>443</v>
       </c>
       <c r="J649" s="77" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K649" s="77" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L649" s="77" t="s">
         <v>30</v>
@@ -38259,47 +38228,47 @@
       </c>
       <c r="N649" s="77"/>
       <c r="O649" s="94"/>
-      <c r="P649" s="155"/>
-      <c r="Q649" s="156"/>
-      <c r="R649" s="156"/>
-      <c r="S649" s="156"/>
-      <c r="T649" s="156"/>
+      <c r="P649" s="145"/>
+      <c r="Q649" s="146"/>
+      <c r="R649" s="146"/>
+      <c r="S649" s="146"/>
+      <c r="T649" s="146"/>
       <c r="U649" s="77"/>
       <c r="V649" s="89"/>
     </row>
     <row r="650" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A650" s="153" t="s">
-        <v>22</v>
-      </c>
-      <c r="B650" s="154" t="s">
-        <v>562</v>
+      <c r="A650" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B650" s="144" t="s">
+        <v>560</v>
       </c>
       <c r="C650" s="94" t="s">
         <v>262</v>
       </c>
       <c r="D650" s="77" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E650" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F650" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G650" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H650" s="77" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I650" s="77" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J650" s="77" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K650" s="77" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L650" s="77" t="s">
         <v>30</v>
@@ -38309,20 +38278,20 @@
       </c>
       <c r="N650" s="94"/>
       <c r="O650" s="94"/>
-      <c r="P650" s="155"/>
-      <c r="Q650" s="156"/>
-      <c r="R650" s="156"/>
-      <c r="S650" s="156"/>
-      <c r="T650" s="156"/>
+      <c r="P650" s="145"/>
+      <c r="Q650" s="146"/>
+      <c r="R650" s="146"/>
+      <c r="S650" s="146"/>
+      <c r="T650" s="146"/>
       <c r="U650" s="77"/>
       <c r="V650" s="89"/>
     </row>
     <row r="651" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A651" s="153" t="s">
-        <v>22</v>
-      </c>
-      <c r="B651" s="154" t="s">
-        <v>562</v>
+      <c r="A651" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B651" s="144" t="s">
+        <v>560</v>
       </c>
       <c r="C651" s="94" t="s">
         <v>262</v>
@@ -38334,19 +38303,19 @@
         <v>31</v>
       </c>
       <c r="F651" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G651" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H651" s="77" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I651" s="77" t="s">
         <v>293</v>
       </c>
       <c r="J651" s="77" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K651" s="77" t="s">
         <v>32</v>
@@ -38358,23 +38327,23 @@
         <v>25</v>
       </c>
       <c r="N651" s="77" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="O651" s="94"/>
-      <c r="P651" s="155"/>
-      <c r="Q651" s="156"/>
-      <c r="R651" s="156"/>
-      <c r="S651" s="156"/>
-      <c r="T651" s="156"/>
+      <c r="P651" s="145"/>
+      <c r="Q651" s="146"/>
+      <c r="R651" s="146"/>
+      <c r="S651" s="146"/>
+      <c r="T651" s="146"/>
       <c r="U651" s="77"/>
       <c r="V651" s="89"/>
     </row>
     <row r="652" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A652" s="153" t="s">
-        <v>22</v>
-      </c>
-      <c r="B652" s="154" t="s">
-        <v>562</v>
+      <c r="A652" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B652" s="144" t="s">
+        <v>560</v>
       </c>
       <c r="C652" s="94" t="s">
         <v>262</v>
@@ -38383,22 +38352,22 @@
         <v>294</v>
       </c>
       <c r="E652" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F652" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G652" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H652" s="77" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I652" s="77" t="s">
         <v>294</v>
       </c>
       <c r="J652" s="77" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K652" s="77" t="s">
         <v>325</v>
@@ -38411,20 +38380,20 @@
       </c>
       <c r="N652" s="94"/>
       <c r="O652" s="94"/>
-      <c r="P652" s="155"/>
-      <c r="Q652" s="156"/>
-      <c r="R652" s="156"/>
-      <c r="S652" s="156"/>
-      <c r="T652" s="156"/>
+      <c r="P652" s="145"/>
+      <c r="Q652" s="146"/>
+      <c r="R652" s="146"/>
+      <c r="S652" s="146"/>
+      <c r="T652" s="146"/>
       <c r="U652" s="77"/>
       <c r="V652" s="89"/>
     </row>
     <row r="653" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A653" s="153" t="s">
-        <v>22</v>
-      </c>
-      <c r="B653" s="154" t="s">
-        <v>562</v>
+      <c r="A653" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B653" s="144" t="s">
+        <v>560</v>
       </c>
       <c r="C653" s="94" t="s">
         <v>262</v>
@@ -38436,19 +38405,19 @@
         <v>31</v>
       </c>
       <c r="F653" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G653" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H653" s="77" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I653" s="77" t="s">
         <v>296</v>
       </c>
       <c r="J653" s="77" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K653" s="77" t="s">
         <v>32</v>
@@ -38460,23 +38429,23 @@
         <v>25</v>
       </c>
       <c r="N653" s="77" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="O653" s="94"/>
-      <c r="P653" s="155"/>
-      <c r="Q653" s="156"/>
-      <c r="R653" s="156"/>
-      <c r="S653" s="156"/>
-      <c r="T653" s="156"/>
+      <c r="P653" s="145"/>
+      <c r="Q653" s="146"/>
+      <c r="R653" s="146"/>
+      <c r="S653" s="146"/>
+      <c r="T653" s="146"/>
       <c r="U653" s="77"/>
       <c r="V653" s="89"/>
     </row>
     <row r="654" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A654" s="153" t="s">
-        <v>22</v>
-      </c>
-      <c r="B654" s="154" t="s">
-        <v>562</v>
+      <c r="A654" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B654" s="144" t="s">
+        <v>560</v>
       </c>
       <c r="C654" s="94" t="s">
         <v>262</v>
@@ -38485,22 +38454,22 @@
         <v>297</v>
       </c>
       <c r="E654" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F654" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G654" s="77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H654" s="77" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I654" s="77" t="s">
         <v>297</v>
       </c>
       <c r="J654" s="77" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K654" s="77" t="s">
         <v>325</v>
@@ -38513,17 +38482,17 @@
       </c>
       <c r="N654" s="94"/>
       <c r="O654" s="94"/>
-      <c r="P654" s="155"/>
-      <c r="Q654" s="156"/>
-      <c r="R654" s="156"/>
-      <c r="S654" s="156"/>
-      <c r="T654" s="156"/>
+      <c r="P654" s="145"/>
+      <c r="Q654" s="146"/>
+      <c r="R654" s="146"/>
+      <c r="S654" s="146"/>
+      <c r="T654" s="146"/>
       <c r="U654" s="77"/>
       <c r="V654" s="89"/>
     </row>
     <row r="655" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A655" s="157"/>
-      <c r="B655" s="150"/>
+      <c r="A655" s="147"/>
+      <c r="B655" s="140"/>
       <c r="C655" s="93"/>
       <c r="D655" s="93"/>
       <c r="E655" s="93" t="s">
@@ -38532,22 +38501,22 @@
       <c r="F655" s="94"/>
       <c r="G655" s="94"/>
       <c r="H655" s="77" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I655" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="J655" s="158" t="s">
+      <c r="J655" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="K655" s="159"/>
-      <c r="L655" s="158" t="s">
+      <c r="K655" s="149"/>
+      <c r="L655" s="148" t="s">
         <v>35</v>
       </c>
       <c r="M655" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="N655" s="160" t="s">
+      <c r="N655" s="150" t="s">
         <v>36</v>
       </c>
       <c r="O655" s="93"/>
@@ -38555,13 +38524,13 @@
       <c r="Q655" s="102"/>
       <c r="R655" s="102"/>
       <c r="S655" s="102"/>
-      <c r="T655" s="156"/>
+      <c r="T655" s="146"/>
       <c r="U655" s="77"/>
       <c r="V655" s="89"/>
     </row>
     <row r="656" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A656" s="157"/>
-      <c r="B656" s="150"/>
+      <c r="A656" s="147"/>
+      <c r="B656" s="140"/>
       <c r="C656" s="93"/>
       <c r="D656" s="93"/>
       <c r="E656" s="93" t="s">
@@ -38570,16 +38539,16 @@
       <c r="F656" s="94"/>
       <c r="G656" s="94"/>
       <c r="H656" s="77" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I656" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="J656" s="158" t="s">
+      <c r="J656" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="K656" s="158"/>
-      <c r="L656" s="161" t="s">
+      <c r="K656" s="148"/>
+      <c r="L656" s="151" t="s">
         <v>35</v>
       </c>
       <c r="M656" s="93" t="s">
@@ -38593,13 +38562,13 @@
       <c r="Q656" s="102"/>
       <c r="R656" s="102"/>
       <c r="S656" s="102"/>
-      <c r="T656" s="156"/>
+      <c r="T656" s="146"/>
       <c r="U656" s="77"/>
       <c r="V656" s="89"/>
     </row>
     <row r="657" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A657" s="157"/>
-      <c r="B657" s="150"/>
+      <c r="A657" s="147"/>
+      <c r="B657" s="140"/>
       <c r="C657" s="93"/>
       <c r="D657" s="93"/>
       <c r="E657" s="93" t="s">
@@ -38608,16 +38577,16 @@
       <c r="F657" s="94"/>
       <c r="G657" s="94"/>
       <c r="H657" s="77" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I657" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="J657" s="158" t="s">
+      <c r="J657" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="K657" s="158"/>
-      <c r="L657" s="161" t="s">
+      <c r="K657" s="148"/>
+      <c r="L657" s="151" t="s">
         <v>35</v>
       </c>
       <c r="M657" s="93" t="s">
@@ -38631,13 +38600,13 @@
       <c r="Q657" s="102"/>
       <c r="R657" s="102"/>
       <c r="S657" s="102"/>
-      <c r="T657" s="156"/>
+      <c r="T657" s="146"/>
       <c r="U657" s="77"/>
       <c r="V657" s="89"/>
     </row>
     <row r="658" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A658" s="157"/>
-      <c r="B658" s="150"/>
+      <c r="A658" s="147"/>
+      <c r="B658" s="140"/>
       <c r="C658" s="93"/>
       <c r="D658" s="93"/>
       <c r="E658" s="93" t="s">
@@ -38646,23 +38615,23 @@
       <c r="F658" s="94"/>
       <c r="G658" s="94"/>
       <c r="H658" s="77" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I658" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="J658" s="158" t="s">
+      <c r="J658" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="K658" s="158"/>
-      <c r="L658" s="161" t="s">
+      <c r="K658" s="148"/>
+      <c r="L658" s="151" t="s">
         <v>35</v>
       </c>
       <c r="M658" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="N658" s="162" t="s">
-        <v>561</v>
+      <c r="N658" s="152" t="s">
+        <v>559</v>
       </c>
       <c r="O658" s="93"/>
       <c r="P658" s="102"/>
@@ -38671,13 +38640,13 @@
       </c>
       <c r="R658" s="102"/>
       <c r="S658" s="102"/>
-      <c r="T658" s="156"/>
+      <c r="T658" s="146"/>
       <c r="U658" s="77"/>
       <c r="V658" s="89"/>
     </row>
     <row r="659" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A659" s="157"/>
-      <c r="B659" s="150"/>
+      <c r="A659" s="147"/>
+      <c r="B659" s="140"/>
       <c r="C659" s="93"/>
       <c r="D659" s="93"/>
       <c r="E659" s="93" t="s">
@@ -38686,22 +38655,22 @@
       <c r="F659" s="94"/>
       <c r="G659" s="94"/>
       <c r="H659" s="77" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I659" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="J659" s="158" t="s">
+      <c r="J659" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="K659" s="158"/>
-      <c r="L659" s="161" t="s">
+      <c r="K659" s="148"/>
+      <c r="L659" s="151" t="s">
         <v>35</v>
       </c>
       <c r="M659" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="N659" s="163" t="s">
+      <c r="N659" s="153" t="s">
         <v>51</v>
       </c>
       <c r="O659" s="93"/>
@@ -38709,22 +38678,22 @@
       <c r="Q659" s="102"/>
       <c r="R659" s="102"/>
       <c r="S659" s="102"/>
-      <c r="T659" s="156"/>
+      <c r="T659" s="146"/>
       <c r="U659" s="77"/>
       <c r="V659" s="89"/>
     </row>
     <row r="660" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A660" s="102"/>
-      <c r="B660" s="150"/>
+      <c r="B660" s="140"/>
       <c r="C660" s="93"/>
       <c r="D660" s="93"/>
       <c r="E660" s="93"/>
       <c r="F660" s="93"/>
       <c r="G660" s="93"/>
       <c r="H660" s="77" t="s">
-        <v>566</v>
-      </c>
-      <c r="I660" s="164" t="s">
+        <v>564</v>
+      </c>
+      <c r="I660" s="154" t="s">
         <v>53</v>
       </c>
       <c r="J660" s="93" t="s">
@@ -38754,7 +38723,7 @@
         <v>22</v>
       </c>
       <c r="B661" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C661" s="7" t="s">
         <v>262</v>
@@ -38768,7 +38737,7 @@
         <v>23</v>
       </c>
       <c r="H661" s="8" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I661" s="8"/>
       <c r="J661" s="10"/>
@@ -38806,29 +38775,29 @@
       <c r="A662" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B662" s="154" t="s">
-        <v>572</v>
+      <c r="B662" s="144" t="s">
+        <v>570</v>
       </c>
       <c r="C662" s="91" t="s">
         <v>262</v>
       </c>
-      <c r="D662" s="165" t="s">
-        <v>573</v>
+      <c r="D662" s="155" t="s">
+        <v>571</v>
       </c>
       <c r="E662" s="91"/>
       <c r="F662" s="14"/>
       <c r="G662" s="87"/>
       <c r="H662" s="87" t="s">
-        <v>583</v>
-      </c>
-      <c r="I662" s="165" t="s">
-        <v>573</v>
+        <v>581</v>
+      </c>
+      <c r="I662" s="155" t="s">
+        <v>571</v>
       </c>
       <c r="J662" s="77" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K662" s="77" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L662" s="91" t="s">
         <v>30</v>
@@ -38850,29 +38819,29 @@
       <c r="A663" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B663" s="154" t="s">
+      <c r="B663" s="144" t="s">
+        <v>570</v>
+      </c>
+      <c r="C663" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="D663" s="155" t="s">
         <v>572</v>
-      </c>
-      <c r="C663" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="D663" s="165" t="s">
-        <v>574</v>
       </c>
       <c r="E663" s="91"/>
       <c r="F663" s="14"/>
       <c r="G663" s="87"/>
       <c r="H663" s="87" t="s">
-        <v>583</v>
-      </c>
-      <c r="I663" s="165" t="s">
-        <v>574</v>
+        <v>581</v>
+      </c>
+      <c r="I663" s="155" t="s">
+        <v>572</v>
       </c>
       <c r="J663" s="77" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="K663" s="77" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="L663" s="91" t="s">
         <v>30</v>
@@ -38894,28 +38863,28 @@
       <c r="A664" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B664" s="154" t="s">
-        <v>572</v>
+      <c r="B664" s="144" t="s">
+        <v>570</v>
       </c>
       <c r="C664" s="91" t="s">
         <v>262</v>
       </c>
-      <c r="D664" s="165" t="s">
-        <v>575</v>
+      <c r="D664" s="155" t="s">
+        <v>573</v>
       </c>
       <c r="F664" s="14"/>
       <c r="G664" s="87"/>
       <c r="H664" s="87" t="s">
-        <v>583</v>
-      </c>
-      <c r="I664" s="165" t="s">
-        <v>575</v>
+        <v>581</v>
+      </c>
+      <c r="I664" s="155" t="s">
+        <v>573</v>
       </c>
       <c r="J664" s="77" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="K664" s="77" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="L664" s="91" t="s">
         <v>30</v>
@@ -38936,14 +38905,14 @@
       <c r="A665" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B665" s="154" t="s">
-        <v>572</v>
+      <c r="B665" s="144" t="s">
+        <v>570</v>
       </c>
       <c r="C665" s="91" t="s">
         <v>262</v>
       </c>
-      <c r="D665" s="165" t="s">
-        <v>576</v>
+      <c r="D665" s="155" t="s">
+        <v>574</v>
       </c>
       <c r="E665" s="91" t="s">
         <v>31</v>
@@ -38951,16 +38920,16 @@
       <c r="F665" s="14"/>
       <c r="G665" s="87"/>
       <c r="H665" s="87" t="s">
-        <v>583</v>
-      </c>
-      <c r="I665" s="165" t="s">
-        <v>576</v>
+        <v>581</v>
+      </c>
+      <c r="I665" s="155" t="s">
+        <v>574</v>
       </c>
       <c r="J665" s="77" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="K665" s="77" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="L665" s="91" t="s">
         <v>30</v>
@@ -38984,29 +38953,29 @@
       <c r="A666" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B666" s="154" t="s">
-        <v>572</v>
+      <c r="B666" s="144" t="s">
+        <v>570</v>
       </c>
       <c r="C666" s="91" t="s">
         <v>262</v>
       </c>
-      <c r="D666" s="165" t="s">
-        <v>577</v>
+      <c r="D666" s="155" t="s">
+        <v>575</v>
       </c>
       <c r="E666" s="91"/>
       <c r="F666" s="14"/>
       <c r="G666" s="87"/>
       <c r="H666" s="87" t="s">
-        <v>583</v>
-      </c>
-      <c r="I666" s="165" t="s">
-        <v>577</v>
+        <v>581</v>
+      </c>
+      <c r="I666" s="155" t="s">
+        <v>575</v>
       </c>
       <c r="J666" s="77" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="K666" s="77" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="L666" s="91" t="s">
         <v>30</v>
@@ -39027,14 +38996,14 @@
       <c r="A667" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B667" s="154" t="s">
-        <v>572</v>
+      <c r="B667" s="144" t="s">
+        <v>570</v>
       </c>
       <c r="C667" s="91" t="s">
         <v>262</v>
       </c>
-      <c r="D667" s="165" t="s">
-        <v>578</v>
+      <c r="D667" s="155" t="s">
+        <v>576</v>
       </c>
       <c r="E667" s="91" t="s">
         <v>31</v>
@@ -39042,16 +39011,16 @@
       <c r="F667" s="14"/>
       <c r="G667" s="87"/>
       <c r="H667" s="87" t="s">
-        <v>583</v>
-      </c>
-      <c r="I667" s="165" t="s">
-        <v>578</v>
+        <v>581</v>
+      </c>
+      <c r="I667" s="155" t="s">
+        <v>576</v>
       </c>
       <c r="J667" s="77" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="K667" s="77" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="L667" s="91" t="s">
         <v>30</v>
@@ -39082,7 +39051,7 @@
       <c r="F668" s="14"/>
       <c r="G668" s="110"/>
       <c r="H668" s="87" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I668" s="91" t="s">
         <v>33</v>
@@ -39120,7 +39089,7 @@
       <c r="F669" s="110"/>
       <c r="G669" s="110"/>
       <c r="H669" s="87" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I669" s="87" t="s">
         <v>38</v>
@@ -39158,7 +39127,7 @@
       <c r="F670" s="110"/>
       <c r="G670" s="110"/>
       <c r="H670" s="87" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I670" s="93" t="s">
         <v>42</v>
@@ -39196,7 +39165,7 @@
       <c r="F671" s="110"/>
       <c r="G671" s="110"/>
       <c r="H671" s="87" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I671" s="93" t="s">
         <v>46</v>
@@ -39236,7 +39205,7 @@
       <c r="F672" s="117"/>
       <c r="G672" s="117"/>
       <c r="H672" s="87" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I672" s="100" t="s">
         <v>49</v>
@@ -39272,7 +39241,7 @@
       <c r="F673" s="92"/>
       <c r="G673" s="92"/>
       <c r="H673" s="87" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I673" s="93" t="s">
         <v>53</v>
@@ -40205,9 +40174,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40428,27 +40400,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70785B63-45C8-4C04-9C8C-D6290BDFADA1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C16B0E6-E226-461B-8D00-37FDE1E9DF80}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="fb15ab9c-5ce3-4966-97a0-841ffe55082a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5c6a5f84-dc80-404b-9608-a58c80d813cf"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -40473,9 +40433,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C16B0E6-E226-461B-8D00-37FDE1E9DF80}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70785B63-45C8-4C04-9C8C-D6290BDFADA1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="fb15ab9c-5ce3-4966-97a0-841ffe55082a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5c6a5f84-dc80-404b-9608-a58c80d813cf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/DTAC-SOURCE-TO-TARGET-MAPPING_SET2_V0.9.xlsx
+++ b/DTAC-SOURCE-TO-TARGET-MAPPING_SET2_V0.9.xlsx
@@ -2951,25 +2951,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
@@ -3004,6 +2992,18 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3314,12 +3314,12 @@
       <c r="A2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="20.25">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
     </row>
     <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="20"/>
@@ -3343,10 +3343,10 @@
       <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="164" t="s">
+      <c r="A8" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="165"/>
+      <c r="B8" s="161"/>
       <c r="C8" s="27" t="s">
         <v>64</v>
       </c>
@@ -3373,7 +3373,7 @@
       <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" ht="15.75">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="162" t="s">
         <v>70</v>
       </c>
       <c r="B10" s="31" t="s">
@@ -3385,7 +3385,7 @@
       <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="167"/>
+      <c r="A11" s="163"/>
       <c r="B11" s="37" t="s">
         <v>72</v>
       </c>
@@ -3415,7 +3415,7 @@
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" ht="15.75">
-      <c r="A14" s="168" t="s">
+      <c r="A14" s="164" t="s">
         <v>75</v>
       </c>
       <c r="B14" s="37" t="s">
@@ -3427,7 +3427,7 @@
       <c r="F14" s="41"/>
     </row>
     <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="169"/>
+      <c r="A15" s="165"/>
       <c r="B15" s="31" t="s">
         <v>74</v>
       </c>
@@ -3437,7 +3437,7 @@
       <c r="F15" s="44"/>
     </row>
     <row r="16" spans="1:6" ht="15.75">
-      <c r="A16" s="169"/>
+      <c r="A16" s="165"/>
       <c r="B16" s="31" t="s">
         <v>77</v>
       </c>
@@ -3447,7 +3447,7 @@
       <c r="F16" s="44"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A17" s="170"/>
+      <c r="A17" s="166"/>
       <c r="B17" s="46" t="s">
         <v>78</v>
       </c>
@@ -3484,11 +3484,11 @@
       <c r="C20" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="171" t="s">
+      <c r="D20" s="167" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="172"/>
-      <c r="F20" s="173"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="169"/>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1">
       <c r="A21" s="54">
@@ -3500,11 +3500,11 @@
       <c r="C21" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="162" t="s">
+      <c r="D21" s="156" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="160"/>
-      <c r="F21" s="161"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="158"/>
     </row>
     <row r="22" spans="1:6" ht="36.75" customHeight="1">
       <c r="A22" s="57">
@@ -3516,11 +3516,11 @@
       <c r="C22" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="157" t="s">
+      <c r="D22" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="157"/>
-      <c r="F22" s="158"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="172"/>
     </row>
     <row r="23" spans="1:6" ht="31.5" customHeight="1">
       <c r="A23" s="57">
@@ -3532,11 +3532,11 @@
       <c r="C23" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="157" t="s">
+      <c r="D23" s="171" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="157"/>
-      <c r="F23" s="158"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="172"/>
     </row>
     <row r="24" spans="1:6" ht="44.25" customHeight="1">
       <c r="A24" s="57">
@@ -3548,11 +3548,11 @@
       <c r="C24" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="157" t="s">
+      <c r="D24" s="171" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="157"/>
-      <c r="F24" s="158"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="172"/>
     </row>
     <row r="25" spans="1:6" ht="89.25" customHeight="1">
       <c r="A25" s="57">
@@ -3564,11 +3564,11 @@
       <c r="C25" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="159" t="s">
+      <c r="D25" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="160"/>
-      <c r="F25" s="161"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="158"/>
     </row>
     <row r="26" spans="1:6" ht="44.25" customHeight="1">
       <c r="A26" s="57">
@@ -3580,11 +3580,11 @@
       <c r="C26" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="156" t="s">
+      <c r="D26" s="170" t="s">
         <v>582</v>
       </c>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="170"/>
     </row>
     <row r="27" spans="1:6" ht="44.25" customHeight="1">
       <c r="A27" s="57">
@@ -3596,26 +3596,26 @@
       <c r="C27" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="156" t="s">
+      <c r="D27" s="170" t="s">
         <v>583</v>
       </c>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
+      <c r="E27" s="170"/>
+      <c r="F27" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10104,8 +10104,8 @@
   <dimension ref="A1:X673"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A351" sqref="A351"/>
+      <pane ySplit="1" topLeftCell="A546" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A666" sqref="A666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -38870,7 +38870,10 @@
         <v>262</v>
       </c>
       <c r="D664" s="155" t="s">
-        <v>573</v>
+        <v>574</v>
+      </c>
+      <c r="E664" s="91" t="s">
+        <v>31</v>
       </c>
       <c r="F664" s="14"/>
       <c r="G664" s="87"/>
@@ -38878,19 +38881,22 @@
         <v>581</v>
       </c>
       <c r="I664" s="155" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="J664" s="77" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="K664" s="77" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L664" s="91" t="s">
         <v>30</v>
       </c>
       <c r="M664" s="135" t="s">
         <v>25</v>
+      </c>
+      <c r="N664" s="87" t="s">
+        <v>31</v>
       </c>
       <c r="O664" s="14"/>
       <c r="P664" s="18"/>
@@ -38912,10 +38918,7 @@
         <v>262</v>
       </c>
       <c r="D665" s="155" t="s">
-        <v>574</v>
-      </c>
-      <c r="E665" s="91" t="s">
-        <v>31</v>
+        <v>573</v>
       </c>
       <c r="F665" s="14"/>
       <c r="G665" s="87"/>
@@ -38923,22 +38926,19 @@
         <v>581</v>
       </c>
       <c r="I665" s="155" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J665" s="77" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K665" s="77" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L665" s="91" t="s">
         <v>30</v>
       </c>
       <c r="M665" s="135" t="s">
         <v>25</v>
-      </c>
-      <c r="N665" s="87" t="s">
-        <v>31</v>
       </c>
       <c r="O665" s="14"/>
       <c r="P665" s="18"/>
@@ -38960,28 +38960,33 @@
         <v>262</v>
       </c>
       <c r="D666" s="155" t="s">
-        <v>575</v>
-      </c>
-      <c r="E666" s="91"/>
+        <v>576</v>
+      </c>
+      <c r="E666" s="91" t="s">
+        <v>31</v>
+      </c>
       <c r="F666" s="14"/>
       <c r="G666" s="87"/>
       <c r="H666" s="87" t="s">
         <v>581</v>
       </c>
       <c r="I666" s="155" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="J666" s="77" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="K666" s="77" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L666" s="91" t="s">
         <v>30</v>
       </c>
       <c r="M666" s="135" t="s">
         <v>25</v>
+      </c>
+      <c r="N666" s="87" t="s">
+        <v>31</v>
       </c>
       <c r="O666" s="14"/>
       <c r="P666" s="18"/>
@@ -39003,33 +39008,28 @@
         <v>262</v>
       </c>
       <c r="D667" s="155" t="s">
-        <v>576</v>
-      </c>
-      <c r="E667" s="91" t="s">
-        <v>31</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="E667" s="91"/>
       <c r="F667" s="14"/>
       <c r="G667" s="87"/>
       <c r="H667" s="87" t="s">
         <v>581</v>
       </c>
       <c r="I667" s="155" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J667" s="77" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K667" s="77" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L667" s="91" t="s">
         <v>30</v>
       </c>
       <c r="M667" s="135" t="s">
         <v>25</v>
-      </c>
-      <c r="N667" s="87" t="s">
-        <v>31</v>
       </c>
       <c r="O667" s="14"/>
       <c r="P667" s="18"/>
@@ -40183,6 +40183,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C723A6D629A244B9035064CEA29699F" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="439c1f6a0871fabbc20469cf751fc22a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5c6a5f84-dc80-404b-9608-a58c80d813cf" xmlns:ns3="fb15ab9c-5ce3-4966-97a0-841ffe55082a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3a0ba7a63f3f3ddebd5188756dbc3799" ns2:_="" ns3:_="">
     <xsd:import namespace="5c6a5f84-dc80-404b-9608-a58c80d813cf"/>
@@ -40399,12 +40405,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C16B0E6-E226-461B-8D00-37FDE1E9DF80}">
   <ds:schemaRefs>
@@ -40414,6 +40414,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70785B63-45C8-4C04-9C8C-D6290BDFADA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="fb15ab9c-5ce3-4966-97a0-841ffe55082a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5c6a5f84-dc80-404b-9608-a58c80d813cf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFA04A07-630B-46D3-B899-ED803BE18F7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -40430,21 +40447,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70785B63-45C8-4C04-9C8C-D6290BDFADA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="fb15ab9c-5ce3-4966-97a0-841ffe55082a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5c6a5f84-dc80-404b-9608-a58c80d813cf"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DTAC-SOURCE-TO-TARGET-MAPPING_SET2_V0.9.xlsx
+++ b/DTAC-SOURCE-TO-TARGET-MAPPING_SET2_V0.9.xlsx
@@ -1700,9 +1700,6 @@
     <t>VARCHAR2(30)</t>
   </si>
   <si>
-    <t>if  SUBR_NUMB null then do not generate SBSCRPN_ID  else encrypt(SUBR_NUMB) || '_' || Populate Surrogate Key by doing lookup table</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1849,6 +1846,9 @@
   </si>
   <si>
     <t>Incremental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if  SUBR_NUMB or CUST_NUMB IS null then do not generate SBSCRPN_ID  else  generate SKEY by using encrypted MSISDN and appending ACCOUNT_CODE. </t>
   </si>
 </sst>
 </file>
@@ -3581,7 +3581,7 @@
         <v>86</v>
       </c>
       <c r="D26" s="170" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E26" s="170"/>
       <c r="F26" s="170"/>
@@ -3597,7 +3597,7 @@
         <v>86</v>
       </c>
       <c r="D27" s="170" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E27" s="170"/>
       <c r="F27" s="170"/>
@@ -3678,7 +3678,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="104" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G1" s="106" t="s">
         <v>6</v>
@@ -4290,7 +4290,7 @@
         <v>33</v>
       </c>
       <c r="J14" s="113" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K14" s="110"/>
       <c r="L14" s="114" t="s">
@@ -4300,7 +4300,7 @@
         <v>26</v>
       </c>
       <c r="N14" s="97" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O14" s="110"/>
       <c r="P14" s="124"/>
@@ -4338,7 +4338,7 @@
         <v>26</v>
       </c>
       <c r="N15" s="98" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O15" s="110"/>
       <c r="P15" s="124"/>
@@ -4355,7 +4355,7 @@
       <c r="C16" s="110"/>
       <c r="D16" s="112"/>
       <c r="E16" s="93" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F16" s="110"/>
       <c r="G16" s="110"/>
@@ -4376,7 +4376,7 @@
         <v>26</v>
       </c>
       <c r="N16" s="98" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O16" s="110"/>
       <c r="P16" s="124"/>
@@ -4490,7 +4490,7 @@
         <v>26</v>
       </c>
       <c r="N19" s="103" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O19" s="110"/>
       <c r="P19" s="124"/>
@@ -4977,7 +4977,7 @@
         <v>33</v>
       </c>
       <c r="J30" s="77" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K30" s="77"/>
       <c r="L30" s="77" t="s">
@@ -4987,7 +4987,7 @@
         <v>26</v>
       </c>
       <c r="N30" s="97" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O30" s="110"/>
       <c r="P30" s="124"/>
@@ -5025,7 +5025,7 @@
         <v>26</v>
       </c>
       <c r="N31" s="98" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O31" s="110"/>
       <c r="P31" s="124"/>
@@ -5042,7 +5042,7 @@
       <c r="C32" s="92"/>
       <c r="D32" s="112"/>
       <c r="E32" s="93" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F32" s="110"/>
       <c r="G32" s="110"/>
@@ -5063,7 +5063,7 @@
         <v>26</v>
       </c>
       <c r="N32" s="98" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O32" s="110"/>
       <c r="P32" s="124"/>
@@ -5177,7 +5177,7 @@
         <v>26</v>
       </c>
       <c r="N35" s="103" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O35" s="92"/>
       <c r="P35" s="126"/>
@@ -5840,7 +5840,7 @@
         <v>33</v>
       </c>
       <c r="J50" s="113" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K50" s="110"/>
       <c r="L50" s="114" t="s">
@@ -5850,7 +5850,7 @@
         <v>26</v>
       </c>
       <c r="N50" s="97" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O50" s="110"/>
       <c r="P50" s="124"/>
@@ -5888,7 +5888,7 @@
         <v>26</v>
       </c>
       <c r="N51" s="98" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O51" s="110"/>
       <c r="P51" s="124"/>
@@ -5905,7 +5905,7 @@
       <c r="C52" s="92"/>
       <c r="D52" s="112"/>
       <c r="E52" s="93" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F52" s="110"/>
       <c r="G52" s="110"/>
@@ -5926,7 +5926,7 @@
         <v>26</v>
       </c>
       <c r="N52" s="98" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O52" s="110"/>
       <c r="P52" s="124"/>
@@ -6040,7 +6040,7 @@
         <v>26</v>
       </c>
       <c r="N55" s="103" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O55" s="92"/>
       <c r="P55" s="126"/>
@@ -6433,7 +6433,7 @@
         <v>314</v>
       </c>
       <c r="D64" s="77" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>167</v>
@@ -6444,7 +6444,7 @@
         <v>201</v>
       </c>
       <c r="I64" s="77" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J64" s="77" t="s">
         <v>32</v>
@@ -6833,7 +6833,7 @@
         <v>314</v>
       </c>
       <c r="D73" s="77" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E73" s="15" t="s">
         <v>167</v>
@@ -6844,7 +6844,7 @@
         <v>201</v>
       </c>
       <c r="I73" s="77" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J73" s="77" t="s">
         <v>32</v>
@@ -6965,7 +6965,7 @@
         <v>314</v>
       </c>
       <c r="D76" s="77" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E76" s="15" t="s">
         <v>167</v>
@@ -6976,7 +6976,7 @@
         <v>201</v>
       </c>
       <c r="I76" s="77" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J76" s="77" t="s">
         <v>32</v>
@@ -7145,7 +7145,7 @@
         <v>33</v>
       </c>
       <c r="J80" s="77" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K80" s="77"/>
       <c r="L80" s="77" t="s">
@@ -7155,7 +7155,7 @@
         <v>26</v>
       </c>
       <c r="N80" s="97" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O80" s="110"/>
       <c r="P80" s="124"/>
@@ -7193,7 +7193,7 @@
         <v>26</v>
       </c>
       <c r="N81" s="98" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O81" s="110"/>
       <c r="P81" s="124"/>
@@ -7210,7 +7210,7 @@
       <c r="C82" s="92"/>
       <c r="D82" s="112"/>
       <c r="E82" s="93" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F82" s="110"/>
       <c r="G82" s="110"/>
@@ -7231,7 +7231,7 @@
         <v>26</v>
       </c>
       <c r="N82" s="98" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O82" s="110"/>
       <c r="P82" s="124"/>
@@ -7345,7 +7345,7 @@
         <v>26</v>
       </c>
       <c r="N85" s="103" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O85" s="92"/>
       <c r="P85" s="126"/>
@@ -9868,7 +9868,7 @@
         <v>33</v>
       </c>
       <c r="J141" s="113" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K141" s="110"/>
       <c r="L141" s="114" t="s">
@@ -9878,7 +9878,7 @@
         <v>26</v>
       </c>
       <c r="N141" s="97" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O141" s="110"/>
       <c r="P141" s="124"/>
@@ -9916,7 +9916,7 @@
         <v>26</v>
       </c>
       <c r="N142" s="98" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O142" s="110"/>
       <c r="P142" s="124"/>
@@ -9933,7 +9933,7 @@
       <c r="C143" s="92"/>
       <c r="D143" s="112"/>
       <c r="E143" s="93" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F143" s="110"/>
       <c r="G143" s="110"/>
@@ -9954,7 +9954,7 @@
         <v>26</v>
       </c>
       <c r="N143" s="98" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O143" s="110"/>
       <c r="P143" s="124"/>
@@ -10068,7 +10068,7 @@
         <v>26</v>
       </c>
       <c r="N146" s="103" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O146" s="92"/>
       <c r="P146" s="126"/>
@@ -10103,9 +10103,9 @@
   </sheetPr>
   <dimension ref="A1:X673"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A546" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A666" sqref="A666"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A642" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -10876,7 +10876,7 @@
         <v>25</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O16" s="14"/>
       <c r="P16" s="18"/>
@@ -17641,7 +17641,7 @@
         <v>25</v>
       </c>
       <c r="N173" s="14" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O173" s="14"/>
       <c r="P173" s="18"/>
@@ -17679,7 +17679,7 @@
         <v>293</v>
       </c>
       <c r="J174" s="14" t="s">
-        <v>357</v>
+        <v>32</v>
       </c>
       <c r="K174" s="14" t="s">
         <v>357</v>
@@ -17771,7 +17771,7 @@
         <v>296</v>
       </c>
       <c r="J176" s="14" t="s">
-        <v>357</v>
+        <v>32</v>
       </c>
       <c r="K176" s="14" t="s">
         <v>357</v>
@@ -18618,7 +18618,7 @@
         <v>25</v>
       </c>
       <c r="N195" s="14" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O195" s="87"/>
       <c r="P195" s="18"/>
@@ -37695,7 +37695,7 @@
         <v>22</v>
       </c>
       <c r="B639" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C639" s="7" t="s">
         <v>262</v>
@@ -37703,13 +37703,13 @@
       <c r="D639" s="8"/>
       <c r="E639" s="8"/>
       <c r="F639" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G639" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H639" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I639" s="8"/>
       <c r="J639" s="10"/>
@@ -37751,7 +37751,7 @@
       <c r="F640" s="77"/>
       <c r="G640" s="77"/>
       <c r="H640" s="77" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I640" s="77" t="s">
         <v>545</v>
@@ -37767,7 +37767,7 @@
         <v>25</v>
       </c>
       <c r="N640" s="142" t="s">
-        <v>547</v>
+        <v>595</v>
       </c>
       <c r="O640" s="77"/>
       <c r="P640" s="134"/>
@@ -37785,7 +37785,7 @@
         <v>22</v>
       </c>
       <c r="B641" s="144" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C641" s="94" t="s">
         <v>262</v>
@@ -37794,16 +37794,16 @@
         <v>407</v>
       </c>
       <c r="E641" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F641" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G641" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H641" s="77" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I641" s="77" t="s">
         <v>407</v>
@@ -37837,28 +37837,28 @@
         <v>22</v>
       </c>
       <c r="B642" s="144" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C642" s="94" t="s">
         <v>262</v>
       </c>
       <c r="D642" s="77" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E642" s="77" t="s">
+        <v>547</v>
+      </c>
+      <c r="F642" s="77" t="s">
+        <v>547</v>
+      </c>
+      <c r="G642" s="77" t="s">
+        <v>547</v>
+      </c>
+      <c r="H642" s="77" t="s">
+        <v>563</v>
+      </c>
+      <c r="I642" s="77" t="s">
         <v>548</v>
-      </c>
-      <c r="F642" s="77" t="s">
-        <v>548</v>
-      </c>
-      <c r="G642" s="77" t="s">
-        <v>548</v>
-      </c>
-      <c r="H642" s="77" t="s">
-        <v>564</v>
-      </c>
-      <c r="I642" s="77" t="s">
-        <v>549</v>
       </c>
       <c r="J642" s="77" t="s">
         <v>29</v>
@@ -37887,31 +37887,31 @@
         <v>22</v>
       </c>
       <c r="B643" s="144" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C643" s="94" t="s">
         <v>262</v>
       </c>
       <c r="D643" s="77" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E643" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F643" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G643" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H643" s="77" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I643" s="77" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J643" s="77" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K643" s="77" t="s">
         <v>325</v>
@@ -37941,34 +37941,34 @@
         <v>22</v>
       </c>
       <c r="B644" s="144" t="s">
+        <v>559</v>
+      </c>
+      <c r="C644" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="D644" s="77" t="s">
         <v>560</v>
       </c>
-      <c r="C644" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="D644" s="77" t="s">
-        <v>561</v>
-      </c>
       <c r="E644" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F644" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G644" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H644" s="77" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I644" s="77" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J644" s="77" t="s">
         <v>546</v>
       </c>
       <c r="K644" s="77" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L644" s="77" t="s">
         <v>30</v>
@@ -37991,34 +37991,34 @@
         <v>22</v>
       </c>
       <c r="B645" s="144" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C645" s="94" t="s">
         <v>262</v>
       </c>
       <c r="D645" s="77" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E645" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F645" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G645" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H645" s="77" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I645" s="77" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J645" s="77" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K645" s="77" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L645" s="77" t="s">
         <v>30</v>
@@ -38041,34 +38041,34 @@
         <v>22</v>
       </c>
       <c r="B646" s="144" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C646" s="94" t="s">
         <v>262</v>
       </c>
       <c r="D646" s="77" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E646" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F646" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G646" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H646" s="77" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I646" s="77" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J646" s="77" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K646" s="77" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L646" s="77" t="s">
         <v>30</v>
@@ -38091,7 +38091,7 @@
         <v>22</v>
       </c>
       <c r="B647" s="144" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C647" s="94" t="s">
         <v>262</v>
@@ -38100,25 +38100,25 @@
         <v>387</v>
       </c>
       <c r="E647" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F647" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G647" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H647" s="77" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I647" s="77" t="s">
         <v>387</v>
       </c>
       <c r="J647" s="77" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K647" s="77" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L647" s="77" t="s">
         <v>30</v>
@@ -38141,28 +38141,28 @@
         <v>22</v>
       </c>
       <c r="B648" s="144" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C648" s="94" t="s">
         <v>262</v>
       </c>
       <c r="D648" s="77" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E648" s="77" t="s">
         <v>299</v>
       </c>
       <c r="F648" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G648" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H648" s="77" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I648" s="77" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J648" s="77" t="s">
         <v>47</v>
@@ -38177,7 +38177,7 @@
         <v>25</v>
       </c>
       <c r="N648" s="77" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O648" s="94"/>
       <c r="P648" s="145"/>
@@ -38193,7 +38193,7 @@
         <v>22</v>
       </c>
       <c r="B649" s="144" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C649" s="94" t="s">
         <v>262</v>
@@ -38203,22 +38203,22 @@
       </c>
       <c r="E649" s="77"/>
       <c r="F649" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G649" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H649" s="77" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I649" s="77" t="s">
         <v>443</v>
       </c>
       <c r="J649" s="77" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K649" s="77" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L649" s="77" t="s">
         <v>30</v>
@@ -38241,34 +38241,34 @@
         <v>22</v>
       </c>
       <c r="B650" s="144" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C650" s="94" t="s">
         <v>262</v>
       </c>
       <c r="D650" s="77" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E650" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F650" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G650" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H650" s="77" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I650" s="77" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J650" s="77" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K650" s="77" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L650" s="77" t="s">
         <v>30</v>
@@ -38291,7 +38291,7 @@
         <v>22</v>
       </c>
       <c r="B651" s="144" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C651" s="94" t="s">
         <v>262</v>
@@ -38303,19 +38303,19 @@
         <v>31</v>
       </c>
       <c r="F651" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G651" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H651" s="77" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I651" s="77" t="s">
         <v>293</v>
       </c>
       <c r="J651" s="77" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K651" s="77" t="s">
         <v>32</v>
@@ -38327,7 +38327,7 @@
         <v>25</v>
       </c>
       <c r="N651" s="77" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="O651" s="94"/>
       <c r="P651" s="145"/>
@@ -38343,7 +38343,7 @@
         <v>22</v>
       </c>
       <c r="B652" s="144" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C652" s="94" t="s">
         <v>262</v>
@@ -38352,22 +38352,22 @@
         <v>294</v>
       </c>
       <c r="E652" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F652" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G652" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H652" s="77" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I652" s="77" t="s">
         <v>294</v>
       </c>
       <c r="J652" s="77" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K652" s="77" t="s">
         <v>325</v>
@@ -38393,7 +38393,7 @@
         <v>22</v>
       </c>
       <c r="B653" s="144" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C653" s="94" t="s">
         <v>262</v>
@@ -38405,19 +38405,19 @@
         <v>31</v>
       </c>
       <c r="F653" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G653" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H653" s="77" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I653" s="77" t="s">
         <v>296</v>
       </c>
       <c r="J653" s="77" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K653" s="77" t="s">
         <v>32</v>
@@ -38429,7 +38429,7 @@
         <v>25</v>
       </c>
       <c r="N653" s="77" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="O653" s="94"/>
       <c r="P653" s="145"/>
@@ -38445,7 +38445,7 @@
         <v>22</v>
       </c>
       <c r="B654" s="144" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C654" s="94" t="s">
         <v>262</v>
@@ -38454,22 +38454,22 @@
         <v>297</v>
       </c>
       <c r="E654" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F654" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G654" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H654" s="77" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I654" s="77" t="s">
         <v>297</v>
       </c>
       <c r="J654" s="77" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K654" s="77" t="s">
         <v>325</v>
@@ -38501,7 +38501,7 @@
       <c r="F655" s="94"/>
       <c r="G655" s="94"/>
       <c r="H655" s="77" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I655" s="94" t="s">
         <v>33</v>
@@ -38539,7 +38539,7 @@
       <c r="F656" s="94"/>
       <c r="G656" s="94"/>
       <c r="H656" s="77" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I656" s="93" t="s">
         <v>38</v>
@@ -38577,7 +38577,7 @@
       <c r="F657" s="94"/>
       <c r="G657" s="94"/>
       <c r="H657" s="77" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I657" s="93" t="s">
         <v>42</v>
@@ -38615,7 +38615,7 @@
       <c r="F658" s="94"/>
       <c r="G658" s="94"/>
       <c r="H658" s="77" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I658" s="93" t="s">
         <v>46</v>
@@ -38631,7 +38631,7 @@
         <v>26</v>
       </c>
       <c r="N658" s="152" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O658" s="93"/>
       <c r="P658" s="102"/>
@@ -38655,7 +38655,7 @@
       <c r="F659" s="94"/>
       <c r="G659" s="94"/>
       <c r="H659" s="77" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I659" s="93" t="s">
         <v>49</v>
@@ -38691,7 +38691,7 @@
       <c r="F660" s="93"/>
       <c r="G660" s="93"/>
       <c r="H660" s="77" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I660" s="154" t="s">
         <v>53</v>
@@ -38723,7 +38723,7 @@
         <v>22</v>
       </c>
       <c r="B661" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C661" s="7" t="s">
         <v>262</v>
@@ -38737,7 +38737,7 @@
         <v>23</v>
       </c>
       <c r="H661" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I661" s="8"/>
       <c r="J661" s="10"/>
@@ -38776,28 +38776,28 @@
         <v>22</v>
       </c>
       <c r="B662" s="144" t="s">
+        <v>569</v>
+      </c>
+      <c r="C662" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="D662" s="155" t="s">
         <v>570</v>
-      </c>
-      <c r="C662" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="D662" s="155" t="s">
-        <v>571</v>
       </c>
       <c r="E662" s="91"/>
       <c r="F662" s="14"/>
       <c r="G662" s="87"/>
       <c r="H662" s="87" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I662" s="155" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J662" s="77" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K662" s="77" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L662" s="91" t="s">
         <v>30</v>
@@ -38820,28 +38820,28 @@
         <v>22</v>
       </c>
       <c r="B663" s="144" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C663" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D663" s="155" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E663" s="91"/>
       <c r="F663" s="14"/>
       <c r="G663" s="87"/>
       <c r="H663" s="87" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I663" s="155" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J663" s="77" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K663" s="77" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L663" s="91" t="s">
         <v>30</v>
@@ -38864,13 +38864,13 @@
         <v>22</v>
       </c>
       <c r="B664" s="144" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C664" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D664" s="155" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E664" s="91" t="s">
         <v>31</v>
@@ -38878,16 +38878,16 @@
       <c r="F664" s="14"/>
       <c r="G664" s="87"/>
       <c r="H664" s="87" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I664" s="155" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J664" s="77" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K664" s="77" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L664" s="91" t="s">
         <v>30</v>
@@ -38912,27 +38912,27 @@
         <v>22</v>
       </c>
       <c r="B665" s="144" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C665" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D665" s="155" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F665" s="14"/>
       <c r="G665" s="87"/>
       <c r="H665" s="87" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I665" s="155" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J665" s="77" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K665" s="77" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L665" s="91" t="s">
         <v>30</v>
@@ -38954,13 +38954,13 @@
         <v>22</v>
       </c>
       <c r="B666" s="144" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C666" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D666" s="155" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E666" s="91" t="s">
         <v>31</v>
@@ -38968,16 +38968,16 @@
       <c r="F666" s="14"/>
       <c r="G666" s="87"/>
       <c r="H666" s="87" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I666" s="155" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J666" s="77" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K666" s="77" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L666" s="91" t="s">
         <v>30</v>
@@ -39002,28 +39002,28 @@
         <v>22</v>
       </c>
       <c r="B667" s="144" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C667" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D667" s="155" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E667" s="91"/>
       <c r="F667" s="14"/>
       <c r="G667" s="87"/>
       <c r="H667" s="87" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I667" s="155" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J667" s="77" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K667" s="77" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L667" s="91" t="s">
         <v>30</v>
@@ -39051,7 +39051,7 @@
       <c r="F668" s="14"/>
       <c r="G668" s="110"/>
       <c r="H668" s="87" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I668" s="91" t="s">
         <v>33</v>
@@ -39089,7 +39089,7 @@
       <c r="F669" s="110"/>
       <c r="G669" s="110"/>
       <c r="H669" s="87" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I669" s="87" t="s">
         <v>38</v>
@@ -39127,7 +39127,7 @@
       <c r="F670" s="110"/>
       <c r="G670" s="110"/>
       <c r="H670" s="87" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I670" s="93" t="s">
         <v>42</v>
@@ -39165,7 +39165,7 @@
       <c r="F671" s="110"/>
       <c r="G671" s="110"/>
       <c r="H671" s="87" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I671" s="93" t="s">
         <v>46</v>
@@ -39205,7 +39205,7 @@
       <c r="F672" s="117"/>
       <c r="G672" s="117"/>
       <c r="H672" s="87" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I672" s="100" t="s">
         <v>49</v>
@@ -39241,7 +39241,7 @@
       <c r="F673" s="92"/>
       <c r="G673" s="92"/>
       <c r="H673" s="87" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I673" s="93" t="s">
         <v>53</v>

--- a/DTAC-SOURCE-TO-TARGET-MAPPING_SET2_V0.9.xlsx
+++ b/DTAC-SOURCE-TO-TARGET-MAPPING_SET2_V0.9.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8114" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8114" uniqueCount="602">
   <si>
     <t>Mode of Integration</t>
   </si>
@@ -1864,6 +1864,9 @@
   </si>
   <si>
     <t>TAC_PROP</t>
+  </si>
+  <si>
+    <t>DECIMAL(4,1)</t>
   </si>
 </sst>
 </file>
@@ -2992,13 +2995,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
@@ -3034,20 +3051,6 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -3357,12 +3360,12 @@
       <c r="A2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="20.25">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="165" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
     </row>
     <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="20"/>
@@ -3386,10 +3389,10 @@
       <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="161"/>
+      <c r="B8" s="167"/>
       <c r="C8" s="27" t="s">
         <v>63</v>
       </c>
@@ -3416,7 +3419,7 @@
       <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" ht="15.75">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="168" t="s">
         <v>69</v>
       </c>
       <c r="B10" s="31" t="s">
@@ -3428,7 +3431,7 @@
       <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="163"/>
+      <c r="A11" s="169"/>
       <c r="B11" s="37" t="s">
         <v>71</v>
       </c>
@@ -3458,7 +3461,7 @@
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" ht="15.75">
-      <c r="A14" s="164" t="s">
+      <c r="A14" s="170" t="s">
         <v>74</v>
       </c>
       <c r="B14" s="37" t="s">
@@ -3470,7 +3473,7 @@
       <c r="F14" s="41"/>
     </row>
     <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="165"/>
+      <c r="A15" s="171"/>
       <c r="B15" s="31" t="s">
         <v>73</v>
       </c>
@@ -3480,7 +3483,7 @@
       <c r="F15" s="44"/>
     </row>
     <row r="16" spans="1:6" ht="15.75">
-      <c r="A16" s="165"/>
+      <c r="A16" s="171"/>
       <c r="B16" s="31" t="s">
         <v>76</v>
       </c>
@@ -3490,7 +3493,7 @@
       <c r="F16" s="44"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A17" s="166"/>
+      <c r="A17" s="172"/>
       <c r="B17" s="46" t="s">
         <v>77</v>
       </c>
@@ -3527,11 +3530,11 @@
       <c r="C20" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="167" t="s">
+      <c r="D20" s="173" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="168"/>
-      <c r="F20" s="169"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="175"/>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1">
       <c r="A21" s="54">
@@ -3543,11 +3546,11 @@
       <c r="C21" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="156" t="s">
+      <c r="D21" s="164" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="157"/>
-      <c r="F21" s="158"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="163"/>
     </row>
     <row r="22" spans="1:6" ht="36.75" customHeight="1">
       <c r="A22" s="57">
@@ -3559,11 +3562,11 @@
       <c r="C22" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="171" t="s">
+      <c r="D22" s="159" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="171"/>
-      <c r="F22" s="172"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="160"/>
     </row>
     <row r="23" spans="1:6" ht="31.5" customHeight="1">
       <c r="A23" s="57">
@@ -3575,11 +3578,11 @@
       <c r="C23" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="171" t="s">
+      <c r="D23" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="171"/>
-      <c r="F23" s="172"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="160"/>
     </row>
     <row r="24" spans="1:6" ht="44.25" customHeight="1">
       <c r="A24" s="57">
@@ -3591,11 +3594,11 @@
       <c r="C24" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="171" t="s">
+      <c r="D24" s="159" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="171"/>
-      <c r="F24" s="172"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="160"/>
     </row>
     <row r="25" spans="1:6" ht="89.25" customHeight="1">
       <c r="A25" s="57">
@@ -3607,11 +3610,11 @@
       <c r="C25" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="173" t="s">
+      <c r="D25" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="157"/>
-      <c r="F25" s="158"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="163"/>
     </row>
     <row r="26" spans="1:6" ht="44.25" customHeight="1">
       <c r="A26" s="57">
@@ -3623,11 +3626,11 @@
       <c r="C26" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="170" t="s">
+      <c r="D26" s="158" t="s">
         <v>579</v>
       </c>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
     </row>
     <row r="27" spans="1:6" ht="44.25" customHeight="1">
       <c r="A27" s="57">
@@ -3639,26 +3642,26 @@
       <c r="C27" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="170" t="s">
+      <c r="D27" s="158" t="s">
         <v>580</v>
       </c>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="D20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10146,9 +10149,9 @@
   </sheetPr>
   <dimension ref="A1:X676"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -10303,13 +10306,13 @@
       <c r="B3" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C3" s="175" t="s">
+      <c r="C3" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D3" s="87" t="s">
         <v>262</v>
       </c>
-      <c r="E3" s="174"/>
+      <c r="E3" s="156"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14" t="s">
@@ -10347,13 +10350,13 @@
       <c r="B4" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D4" s="87" t="s">
         <v>264</v>
       </c>
-      <c r="E4" s="174"/>
+      <c r="E4" s="156"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14" t="s">
@@ -10391,13 +10394,13 @@
       <c r="B5" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C5" s="175" t="s">
+      <c r="C5" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D5" s="87" t="s">
         <v>266</v>
       </c>
-      <c r="E5" s="174"/>
+      <c r="E5" s="156"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14" t="s">
@@ -10435,13 +10438,13 @@
       <c r="B6" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="175" t="s">
+      <c r="C6" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D6" s="87" t="s">
         <v>267</v>
       </c>
-      <c r="E6" s="174"/>
+      <c r="E6" s="156"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
@@ -10479,13 +10482,13 @@
       <c r="B7" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C7" s="175" t="s">
+      <c r="C7" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D7" s="87" t="s">
         <v>269</v>
       </c>
-      <c r="E7" s="174"/>
+      <c r="E7" s="156"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
@@ -10523,13 +10526,13 @@
       <c r="B8" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C8" s="175" t="s">
+      <c r="C8" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D8" s="87" t="s">
         <v>270</v>
       </c>
-      <c r="E8" s="174"/>
+      <c r="E8" s="156"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
@@ -10571,13 +10574,13 @@
       <c r="B9" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C9" s="175" t="s">
+      <c r="C9" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D9" s="87" t="s">
         <v>272</v>
       </c>
-      <c r="E9" s="174"/>
+      <c r="E9" s="156"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
@@ -10619,13 +10622,13 @@
       <c r="B10" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C10" s="175" t="s">
+      <c r="C10" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D10" s="87" t="s">
         <v>273</v>
       </c>
-      <c r="E10" s="174"/>
+      <c r="E10" s="156"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14" t="s">
@@ -10663,13 +10666,13 @@
       <c r="B11" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C11" s="175" t="s">
+      <c r="C11" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D11" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="E11" s="174"/>
+      <c r="E11" s="156"/>
       <c r="F11" s="77"/>
       <c r="G11" s="77"/>
       <c r="H11" s="14" t="s">
@@ -10707,13 +10710,13 @@
       <c r="B12" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="175" t="s">
+      <c r="C12" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D12" s="87" t="s">
         <v>276</v>
       </c>
-      <c r="E12" s="174"/>
+      <c r="E12" s="156"/>
       <c r="F12" s="77"/>
       <c r="G12" s="77"/>
       <c r="H12" s="14" t="s">
@@ -10751,13 +10754,13 @@
       <c r="B13" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C13" s="175" t="s">
+      <c r="C13" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D13" s="87" t="s">
         <v>277</v>
       </c>
-      <c r="E13" s="174"/>
+      <c r="E13" s="156"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14" t="s">
@@ -10795,13 +10798,13 @@
       <c r="B14" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C14" s="175" t="s">
+      <c r="C14" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D14" s="87" t="s">
         <v>279</v>
       </c>
-      <c r="E14" s="174"/>
+      <c r="E14" s="156"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14" t="s">
@@ -10843,13 +10846,13 @@
       <c r="B15" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C15" s="175" t="s">
+      <c r="C15" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D15" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="E15" s="174"/>
+      <c r="E15" s="156"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14" t="s">
@@ -10891,13 +10894,13 @@
       <c r="B16" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C16" s="175" t="s">
+      <c r="C16" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D16" s="87" t="s">
         <v>282</v>
       </c>
-      <c r="E16" s="174"/>
+      <c r="E16" s="156"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14" t="s">
@@ -10939,13 +10942,13 @@
       <c r="B17" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C17" s="175" t="s">
+      <c r="C17" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D17" s="87" t="s">
         <v>284</v>
       </c>
-      <c r="E17" s="174"/>
+      <c r="E17" s="156"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14" t="s">
@@ -10987,13 +10990,13 @@
       <c r="B18" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C18" s="175" t="s">
+      <c r="C18" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D18" s="87" t="s">
         <v>285</v>
       </c>
-      <c r="E18" s="174" t="s">
+      <c r="E18" s="156" t="s">
         <v>298</v>
       </c>
       <c r="F18" s="14"/>
@@ -11035,13 +11038,13 @@
       <c r="B19" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C19" s="175" t="s">
+      <c r="C19" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D19" s="87" t="s">
         <v>286</v>
       </c>
-      <c r="E19" s="174" t="s">
+      <c r="E19" s="156" t="s">
         <v>298</v>
       </c>
       <c r="F19" s="14"/>
@@ -11083,13 +11086,13 @@
       <c r="B20" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C20" s="175" t="s">
+      <c r="C20" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D20" s="87" t="s">
         <v>287</v>
       </c>
-      <c r="E20" s="174"/>
+      <c r="E20" s="156"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14" t="s">
@@ -11127,13 +11130,13 @@
       <c r="B21" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C21" s="175" t="s">
+      <c r="C21" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D21" s="87" t="s">
         <v>289</v>
       </c>
-      <c r="E21" s="174"/>
+      <c r="E21" s="156"/>
       <c r="F21" s="77"/>
       <c r="G21" s="77"/>
       <c r="H21" s="14" t="s">
@@ -11171,13 +11174,13 @@
       <c r="B22" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C22" s="175" t="s">
+      <c r="C22" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D22" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="E22" s="174"/>
+      <c r="E22" s="156"/>
       <c r="F22" s="77"/>
       <c r="G22" s="77"/>
       <c r="H22" s="14" t="s">
@@ -11215,13 +11218,13 @@
       <c r="B23" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C23" s="175" t="s">
+      <c r="C23" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D23" s="87" t="s">
         <v>292</v>
       </c>
-      <c r="E23" s="174" t="s">
+      <c r="E23" s="156" t="s">
         <v>31</v>
       </c>
       <c r="F23" s="14"/>
@@ -11263,13 +11266,13 @@
       <c r="B24" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C24" s="175" t="s">
+      <c r="C24" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D24" s="87" t="s">
         <v>293</v>
       </c>
-      <c r="E24" s="174"/>
+      <c r="E24" s="156"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14" t="s">
@@ -11307,13 +11310,13 @@
       <c r="B25" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C25" s="175" t="s">
+      <c r="C25" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D25" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="E25" s="174" t="s">
+      <c r="E25" s="156" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="14"/>
@@ -11355,13 +11358,13 @@
       <c r="B26" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C26" s="175" t="s">
+      <c r="C26" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D26" s="87" t="s">
         <v>296</v>
       </c>
-      <c r="E26" s="174"/>
+      <c r="E26" s="156"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14" t="s">
@@ -11399,13 +11402,13 @@
       <c r="B27" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C27" s="175" t="s">
+      <c r="C27" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D27" s="87" t="s">
         <v>596</v>
       </c>
-      <c r="E27" s="174"/>
+      <c r="E27" s="156"/>
       <c r="F27" s="112"/>
       <c r="G27" s="112"/>
       <c r="H27" s="14" t="s">
@@ -11443,13 +11446,13 @@
       <c r="B28" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C28" s="175" t="s">
+      <c r="C28" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D28" s="87" t="s">
         <v>597</v>
       </c>
-      <c r="E28" s="174"/>
+      <c r="E28" s="156"/>
       <c r="F28" s="112"/>
       <c r="G28" s="112"/>
       <c r="H28" s="14" t="s">
@@ -11487,13 +11490,13 @@
       <c r="B29" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C29" s="175" t="s">
+      <c r="C29" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D29" s="87" t="s">
         <v>598</v>
       </c>
-      <c r="E29" s="174"/>
+      <c r="E29" s="156"/>
       <c r="F29" s="112"/>
       <c r="G29" s="112"/>
       <c r="H29" s="14" t="s">
@@ -11531,13 +11534,13 @@
       <c r="B30" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C30" s="175" t="s">
+      <c r="C30" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D30" s="87" t="s">
         <v>599</v>
       </c>
-      <c r="E30" s="174"/>
+      <c r="E30" s="156"/>
       <c r="F30" s="112"/>
       <c r="G30" s="112"/>
       <c r="H30" s="14" t="s">
@@ -11575,13 +11578,13 @@
       <c r="B31" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C31" s="175" t="s">
+      <c r="C31" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D31" s="87" t="s">
         <v>600</v>
       </c>
-      <c r="E31" s="174"/>
+      <c r="E31" s="156"/>
       <c r="F31" s="112"/>
       <c r="G31" s="112"/>
       <c r="H31" s="14" t="s">
@@ -19109,7 +19112,7 @@
         <v>375</v>
       </c>
       <c r="J205" s="87" t="s">
-        <v>376</v>
+        <v>601</v>
       </c>
       <c r="K205" s="87" t="s">
         <v>376</v>
@@ -40566,18 +40569,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40600,14 +40603,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C16B0E6-E226-461B-8D00-37FDE1E9DF80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70785B63-45C8-4C04-9C8C-D6290BDFADA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -40622,4 +40617,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C16B0E6-E226-461B-8D00-37FDE1E9DF80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>